--- a/2018.10.29-2018.11.4.xlsx
+++ b/2018.10.29-2018.11.4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="62">
   <si>
     <t>时间段</t>
   </si>
@@ -276,6 +276,9 @@
     <t>18：00-18：30</t>
   </si>
   <si>
+    <t>牛客网收集各公司关于大数据岗位的实习信息，并整理，然后按照自己的思路来制定学习计划</t>
+  </si>
+  <si>
     <t>18：30-19：00</t>
   </si>
   <si>
@@ -295,6 +298,9 @@
   </si>
   <si>
     <t>21：30-22：00</t>
+  </si>
+  <si>
+    <t>开始学习java基础，并记录笔记</t>
   </si>
   <si>
     <t>22：00-22：30</t>
@@ -330,10 +336,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -366,6 +372,28 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -375,15 +403,16 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -398,7 +427,38 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -412,6 +472,28 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -420,82 +502,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF00B0F0"/>
@@ -557,31 +563,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -593,151 +731,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -892,6 +898,36 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -917,21 +953,6 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -965,172 +986,157 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="20" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1162,6 +1168,15 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1519,7 +1534,7 @@
   <dimension ref="A1:P38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1556,15 +1571,15 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="12" t="s">
+      <c r="J1" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="12"/>
-      <c r="L1" s="12"/>
-      <c r="M1" s="12"/>
-      <c r="N1" s="12"/>
-      <c r="O1" s="12"/>
-      <c r="P1" s="12"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
+      <c r="M1" s="15"/>
+      <c r="N1" s="15"/>
+      <c r="O1" s="15"/>
+      <c r="P1" s="15"/>
     </row>
     <row r="2" ht="18" customHeight="1" spans="1:16">
       <c r="A2" s="1" t="s">
@@ -1590,13 +1605,13 @@
       </c>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12"/>
-      <c r="L2" s="12"/>
-      <c r="M2" s="12"/>
-      <c r="N2" s="12"/>
-      <c r="O2" s="12"/>
-      <c r="P2" s="12"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="15"/>
+      <c r="L2" s="15"/>
+      <c r="M2" s="15"/>
+      <c r="N2" s="15"/>
+      <c r="O2" s="15"/>
+      <c r="P2" s="15"/>
     </row>
     <row r="3" ht="18" customHeight="1" spans="1:16">
       <c r="A3" s="1"/>
@@ -1620,13 +1635,13 @@
       </c>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
-      <c r="J3" s="12"/>
-      <c r="K3" s="12"/>
-      <c r="L3" s="12"/>
-      <c r="M3" s="12"/>
-      <c r="N3" s="12"/>
-      <c r="O3" s="12"/>
-      <c r="P3" s="12"/>
+      <c r="J3" s="15"/>
+      <c r="K3" s="15"/>
+      <c r="L3" s="15"/>
+      <c r="M3" s="15"/>
+      <c r="N3" s="15"/>
+      <c r="O3" s="15"/>
+      <c r="P3" s="15"/>
     </row>
     <row r="4" ht="18" customHeight="1" spans="1:16">
       <c r="A4" s="1"/>
@@ -1642,13 +1657,13 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
-      <c r="J4" s="12"/>
-      <c r="K4" s="12"/>
-      <c r="L4" s="12"/>
-      <c r="M4" s="12"/>
-      <c r="N4" s="12"/>
-      <c r="O4" s="12"/>
-      <c r="P4" s="12"/>
+      <c r="J4" s="15"/>
+      <c r="K4" s="15"/>
+      <c r="L4" s="15"/>
+      <c r="M4" s="15"/>
+      <c r="N4" s="15"/>
+      <c r="O4" s="15"/>
+      <c r="P4" s="15"/>
     </row>
     <row r="5" ht="18" customHeight="1" spans="1:16">
       <c r="A5" s="1"/>
@@ -1662,13 +1677,13 @@
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
-      <c r="J5" s="12"/>
-      <c r="K5" s="12"/>
-      <c r="L5" s="12"/>
-      <c r="M5" s="12"/>
-      <c r="N5" s="12"/>
-      <c r="O5" s="12"/>
-      <c r="P5" s="12"/>
+      <c r="J5" s="15"/>
+      <c r="K5" s="15"/>
+      <c r="L5" s="15"/>
+      <c r="M5" s="15"/>
+      <c r="N5" s="15"/>
+      <c r="O5" s="15"/>
+      <c r="P5" s="15"/>
     </row>
     <row r="6" ht="18" customHeight="1" spans="1:16">
       <c r="A6" s="1"/>
@@ -1684,13 +1699,13 @@
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
-      <c r="J6" s="12"/>
-      <c r="K6" s="12"/>
-      <c r="L6" s="12"/>
-      <c r="M6" s="12"/>
-      <c r="N6" s="12"/>
-      <c r="O6" s="12"/>
-      <c r="P6" s="12"/>
+      <c r="J6" s="15"/>
+      <c r="K6" s="15"/>
+      <c r="L6" s="15"/>
+      <c r="M6" s="15"/>
+      <c r="N6" s="15"/>
+      <c r="O6" s="15"/>
+      <c r="P6" s="15"/>
     </row>
     <row r="7" ht="18" customHeight="1" spans="1:16">
       <c r="A7" s="1"/>
@@ -1704,13 +1719,13 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
-      <c r="J7" s="12"/>
-      <c r="K7" s="12"/>
-      <c r="L7" s="12"/>
-      <c r="M7" s="12"/>
-      <c r="N7" s="12"/>
-      <c r="O7" s="12"/>
-      <c r="P7" s="12"/>
+      <c r="J7" s="15"/>
+      <c r="K7" s="15"/>
+      <c r="L7" s="15"/>
+      <c r="M7" s="15"/>
+      <c r="N7" s="15"/>
+      <c r="O7" s="15"/>
+      <c r="P7" s="15"/>
     </row>
     <row r="8" ht="18" customHeight="1" spans="1:16">
       <c r="A8" s="1"/>
@@ -1724,13 +1739,13 @@
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
-      <c r="J8" s="12"/>
-      <c r="K8" s="12"/>
-      <c r="L8" s="12"/>
-      <c r="M8" s="12"/>
-      <c r="N8" s="12"/>
-      <c r="O8" s="12"/>
-      <c r="P8" s="12"/>
+      <c r="J8" s="15"/>
+      <c r="K8" s="15"/>
+      <c r="L8" s="15"/>
+      <c r="M8" s="15"/>
+      <c r="N8" s="15"/>
+      <c r="O8" s="15"/>
+      <c r="P8" s="15"/>
     </row>
     <row r="9" ht="18" customHeight="1" spans="1:16">
       <c r="A9" s="1"/>
@@ -1744,13 +1759,13 @@
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
-      <c r="J9" s="12"/>
-      <c r="K9" s="12"/>
-      <c r="L9" s="12"/>
-      <c r="M9" s="12"/>
-      <c r="N9" s="12"/>
-      <c r="O9" s="12"/>
-      <c r="P9" s="12"/>
+      <c r="J9" s="15"/>
+      <c r="K9" s="15"/>
+      <c r="L9" s="15"/>
+      <c r="M9" s="15"/>
+      <c r="N9" s="15"/>
+      <c r="O9" s="15"/>
+      <c r="P9" s="15"/>
     </row>
     <row r="10" ht="18" customHeight="1" spans="1:16">
       <c r="A10" s="1"/>
@@ -1764,13 +1779,13 @@
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
-      <c r="J10" s="12"/>
-      <c r="K10" s="12"/>
-      <c r="L10" s="12"/>
-      <c r="M10" s="12"/>
-      <c r="N10" s="12"/>
-      <c r="O10" s="12"/>
-      <c r="P10" s="12"/>
+      <c r="J10" s="15"/>
+      <c r="K10" s="15"/>
+      <c r="L10" s="15"/>
+      <c r="M10" s="15"/>
+      <c r="N10" s="15"/>
+      <c r="O10" s="15"/>
+      <c r="P10" s="15"/>
     </row>
     <row r="11" ht="18" customHeight="1" spans="1:16">
       <c r="A11" s="1"/>
@@ -1794,13 +1809,13 @@
       </c>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
-      <c r="J11" s="12"/>
-      <c r="K11" s="12"/>
-      <c r="L11" s="12"/>
-      <c r="M11" s="12"/>
-      <c r="N11" s="12"/>
-      <c r="O11" s="12"/>
-      <c r="P11" s="12"/>
+      <c r="J11" s="15"/>
+      <c r="K11" s="15"/>
+      <c r="L11" s="15"/>
+      <c r="M11" s="15"/>
+      <c r="N11" s="15"/>
+      <c r="O11" s="15"/>
+      <c r="P11" s="15"/>
     </row>
     <row r="12" ht="18" customHeight="1" spans="1:16">
       <c r="A12" s="1" t="s">
@@ -1818,13 +1833,13 @@
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
-      <c r="J12" s="12"/>
-      <c r="K12" s="12"/>
-      <c r="L12" s="12"/>
-      <c r="M12" s="12"/>
-      <c r="N12" s="12"/>
-      <c r="O12" s="12"/>
-      <c r="P12" s="12"/>
+      <c r="J12" s="15"/>
+      <c r="K12" s="15"/>
+      <c r="L12" s="15"/>
+      <c r="M12" s="15"/>
+      <c r="N12" s="15"/>
+      <c r="O12" s="15"/>
+      <c r="P12" s="15"/>
     </row>
     <row r="13" ht="18" customHeight="1" spans="1:16">
       <c r="A13" s="1"/>
@@ -1838,13 +1853,13 @@
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
-      <c r="J13" s="12"/>
-      <c r="K13" s="12"/>
-      <c r="L13" s="12"/>
-      <c r="M13" s="12"/>
-      <c r="N13" s="12"/>
-      <c r="O13" s="12"/>
-      <c r="P13" s="12"/>
+      <c r="J13" s="15"/>
+      <c r="K13" s="15"/>
+      <c r="L13" s="15"/>
+      <c r="M13" s="15"/>
+      <c r="N13" s="15"/>
+      <c r="O13" s="15"/>
+      <c r="P13" s="15"/>
     </row>
     <row r="14" ht="18" customHeight="1" spans="1:16">
       <c r="A14" s="1"/>
@@ -1866,13 +1881,13 @@
       </c>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
-      <c r="J14" s="12"/>
-      <c r="K14" s="12"/>
-      <c r="L14" s="12"/>
-      <c r="M14" s="12"/>
-      <c r="N14" s="12"/>
-      <c r="O14" s="12"/>
-      <c r="P14" s="12"/>
+      <c r="J14" s="15"/>
+      <c r="K14" s="15"/>
+      <c r="L14" s="15"/>
+      <c r="M14" s="15"/>
+      <c r="N14" s="15"/>
+      <c r="O14" s="15"/>
+      <c r="P14" s="15"/>
     </row>
     <row r="15" ht="18" customHeight="1" spans="1:16">
       <c r="A15" s="1"/>
@@ -1888,13 +1903,13 @@
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
-      <c r="J15" s="12"/>
-      <c r="K15" s="12"/>
-      <c r="L15" s="12"/>
-      <c r="M15" s="12"/>
-      <c r="N15" s="12"/>
-      <c r="O15" s="12"/>
-      <c r="P15" s="12"/>
+      <c r="J15" s="15"/>
+      <c r="K15" s="15"/>
+      <c r="L15" s="15"/>
+      <c r="M15" s="15"/>
+      <c r="N15" s="15"/>
+      <c r="O15" s="15"/>
+      <c r="P15" s="15"/>
     </row>
     <row r="16" ht="18" customHeight="1" spans="1:16">
       <c r="A16" s="1" t="s">
@@ -1910,13 +1925,13 @@
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
-      <c r="J16" s="12"/>
-      <c r="K16" s="12"/>
-      <c r="L16" s="12"/>
-      <c r="M16" s="12"/>
-      <c r="N16" s="12"/>
-      <c r="O16" s="12"/>
-      <c r="P16" s="12"/>
+      <c r="J16" s="15"/>
+      <c r="K16" s="15"/>
+      <c r="L16" s="15"/>
+      <c r="M16" s="15"/>
+      <c r="N16" s="15"/>
+      <c r="O16" s="15"/>
+      <c r="P16" s="15"/>
     </row>
     <row r="17" ht="18" customHeight="1" spans="1:16">
       <c r="A17" s="1"/>
@@ -1930,15 +1945,15 @@
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
-      <c r="J17" s="13" t="s">
+      <c r="J17" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="K17" s="14"/>
-      <c r="L17" s="14"/>
-      <c r="M17" s="14"/>
-      <c r="N17" s="14"/>
-      <c r="O17" s="14"/>
-      <c r="P17" s="19"/>
+      <c r="K17" s="17"/>
+      <c r="L17" s="17"/>
+      <c r="M17" s="17"/>
+      <c r="N17" s="17"/>
+      <c r="O17" s="17"/>
+      <c r="P17" s="22"/>
     </row>
     <row r="18" ht="18" customHeight="1" spans="1:16">
       <c r="A18" s="1"/>
@@ -1952,13 +1967,13 @@
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
-      <c r="J18" s="15"/>
-      <c r="K18" s="16"/>
-      <c r="L18" s="16"/>
-      <c r="M18" s="16"/>
-      <c r="N18" s="16"/>
-      <c r="O18" s="16"/>
-      <c r="P18" s="20"/>
+      <c r="J18" s="18"/>
+      <c r="K18" s="19"/>
+      <c r="L18" s="19"/>
+      <c r="M18" s="19"/>
+      <c r="N18" s="19"/>
+      <c r="O18" s="19"/>
+      <c r="P18" s="23"/>
     </row>
     <row r="19" ht="18" customHeight="1" spans="1:16">
       <c r="A19" s="1"/>
@@ -1974,13 +1989,13 @@
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
-      <c r="J19" s="15"/>
-      <c r="K19" s="16"/>
-      <c r="L19" s="16"/>
-      <c r="M19" s="16"/>
-      <c r="N19" s="16"/>
-      <c r="O19" s="16"/>
-      <c r="P19" s="20"/>
+      <c r="J19" s="18"/>
+      <c r="K19" s="19"/>
+      <c r="L19" s="19"/>
+      <c r="M19" s="19"/>
+      <c r="N19" s="19"/>
+      <c r="O19" s="19"/>
+      <c r="P19" s="23"/>
     </row>
     <row r="20" ht="18" customHeight="1" spans="1:16">
       <c r="A20" s="1"/>
@@ -1994,13 +2009,13 @@
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
-      <c r="J20" s="15"/>
-      <c r="K20" s="16"/>
-      <c r="L20" s="16"/>
-      <c r="M20" s="16"/>
-      <c r="N20" s="16"/>
-      <c r="O20" s="16"/>
-      <c r="P20" s="20"/>
+      <c r="J20" s="18"/>
+      <c r="K20" s="19"/>
+      <c r="L20" s="19"/>
+      <c r="M20" s="19"/>
+      <c r="N20" s="19"/>
+      <c r="O20" s="19"/>
+      <c r="P20" s="23"/>
     </row>
     <row r="21" ht="18" customHeight="1" spans="1:16">
       <c r="A21" s="1"/>
@@ -2014,13 +2029,13 @@
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
-      <c r="J21" s="15"/>
-      <c r="K21" s="16"/>
-      <c r="L21" s="16"/>
-      <c r="M21" s="16"/>
-      <c r="N21" s="16"/>
-      <c r="O21" s="16"/>
-      <c r="P21" s="20"/>
+      <c r="J21" s="18"/>
+      <c r="K21" s="19"/>
+      <c r="L21" s="19"/>
+      <c r="M21" s="19"/>
+      <c r="N21" s="19"/>
+      <c r="O21" s="19"/>
+      <c r="P21" s="23"/>
     </row>
     <row r="22" ht="18" customHeight="1" spans="1:16">
       <c r="A22" s="1"/>
@@ -2044,13 +2059,13 @@
       </c>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
-      <c r="J22" s="15"/>
-      <c r="K22" s="16"/>
-      <c r="L22" s="16"/>
-      <c r="M22" s="16"/>
-      <c r="N22" s="16"/>
-      <c r="O22" s="16"/>
-      <c r="P22" s="20"/>
+      <c r="J22" s="18"/>
+      <c r="K22" s="19"/>
+      <c r="L22" s="19"/>
+      <c r="M22" s="19"/>
+      <c r="N22" s="19"/>
+      <c r="O22" s="19"/>
+      <c r="P22" s="23"/>
     </row>
     <row r="23" ht="18" customHeight="1" spans="1:16">
       <c r="A23" s="1" t="s">
@@ -2059,347 +2074,351 @@
       <c r="B23" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C23" s="1"/>
+      <c r="C23" s="11" t="s">
+        <v>45</v>
+      </c>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
-      <c r="J23" s="15"/>
-      <c r="K23" s="16"/>
-      <c r="L23" s="16"/>
-      <c r="M23" s="16"/>
-      <c r="N23" s="16"/>
-      <c r="O23" s="16"/>
-      <c r="P23" s="20"/>
+      <c r="J23" s="18"/>
+      <c r="K23" s="19"/>
+      <c r="L23" s="19"/>
+      <c r="M23" s="19"/>
+      <c r="N23" s="19"/>
+      <c r="O23" s="19"/>
+      <c r="P23" s="23"/>
     </row>
     <row r="24" ht="18" customHeight="1" spans="1:16">
       <c r="A24" s="1"/>
       <c r="B24" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C24" s="1"/>
+        <v>46</v>
+      </c>
+      <c r="C24" s="12"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
-      <c r="J24" s="15"/>
-      <c r="K24" s="16"/>
-      <c r="L24" s="16"/>
-      <c r="M24" s="16"/>
-      <c r="N24" s="16"/>
-      <c r="O24" s="16"/>
-      <c r="P24" s="20"/>
+      <c r="J24" s="18"/>
+      <c r="K24" s="19"/>
+      <c r="L24" s="19"/>
+      <c r="M24" s="19"/>
+      <c r="N24" s="19"/>
+      <c r="O24" s="19"/>
+      <c r="P24" s="23"/>
     </row>
     <row r="25" ht="18" customHeight="1" spans="1:16">
       <c r="A25" s="1"/>
       <c r="B25" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C25" s="1"/>
+        <v>47</v>
+      </c>
+      <c r="C25" s="12"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
-      <c r="J25" s="15"/>
-      <c r="K25" s="16"/>
-      <c r="L25" s="16"/>
-      <c r="M25" s="16"/>
-      <c r="N25" s="16"/>
-      <c r="O25" s="16"/>
-      <c r="P25" s="20"/>
+      <c r="J25" s="18"/>
+      <c r="K25" s="19"/>
+      <c r="L25" s="19"/>
+      <c r="M25" s="19"/>
+      <c r="N25" s="19"/>
+      <c r="O25" s="19"/>
+      <c r="P25" s="23"/>
     </row>
     <row r="26" ht="18" customHeight="1" spans="1:16">
       <c r="A26" s="1"/>
       <c r="B26" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C26" s="1"/>
+        <v>48</v>
+      </c>
+      <c r="C26" s="12"/>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
-      <c r="J26" s="15"/>
-      <c r="K26" s="16"/>
-      <c r="L26" s="16"/>
-      <c r="M26" s="16"/>
-      <c r="N26" s="16"/>
-      <c r="O26" s="16"/>
-      <c r="P26" s="20"/>
+      <c r="J26" s="18"/>
+      <c r="K26" s="19"/>
+      <c r="L26" s="19"/>
+      <c r="M26" s="19"/>
+      <c r="N26" s="19"/>
+      <c r="O26" s="19"/>
+      <c r="P26" s="23"/>
     </row>
     <row r="27" ht="18" customHeight="1" spans="1:16">
       <c r="A27" s="1"/>
       <c r="B27" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C27" s="1"/>
+        <v>49</v>
+      </c>
+      <c r="C27" s="12"/>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
-      <c r="J27" s="15"/>
-      <c r="K27" s="16"/>
-      <c r="L27" s="16"/>
-      <c r="M27" s="16"/>
-      <c r="N27" s="16"/>
-      <c r="O27" s="16"/>
-      <c r="P27" s="20"/>
+      <c r="J27" s="18"/>
+      <c r="K27" s="19"/>
+      <c r="L27" s="19"/>
+      <c r="M27" s="19"/>
+      <c r="N27" s="19"/>
+      <c r="O27" s="19"/>
+      <c r="P27" s="23"/>
     </row>
     <row r="28" ht="18" customHeight="1" spans="1:16">
       <c r="A28" s="1"/>
       <c r="B28" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C28" s="1"/>
+        <v>50</v>
+      </c>
+      <c r="C28" s="12"/>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
-      <c r="J28" s="15"/>
-      <c r="K28" s="16"/>
-      <c r="L28" s="16"/>
-      <c r="M28" s="16"/>
-      <c r="N28" s="16"/>
-      <c r="O28" s="16"/>
-      <c r="P28" s="20"/>
+      <c r="J28" s="18"/>
+      <c r="K28" s="19"/>
+      <c r="L28" s="19"/>
+      <c r="M28" s="19"/>
+      <c r="N28" s="19"/>
+      <c r="O28" s="19"/>
+      <c r="P28" s="23"/>
     </row>
     <row r="29" ht="18" customHeight="1" spans="1:16">
       <c r="A29" s="1"/>
       <c r="B29" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C29" s="1"/>
+        <v>51</v>
+      </c>
+      <c r="C29" s="13"/>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
-      <c r="J29" s="15"/>
-      <c r="K29" s="16"/>
-      <c r="L29" s="16"/>
-      <c r="M29" s="16"/>
-      <c r="N29" s="16"/>
-      <c r="O29" s="16"/>
-      <c r="P29" s="20"/>
+      <c r="J29" s="18"/>
+      <c r="K29" s="19"/>
+      <c r="L29" s="19"/>
+      <c r="M29" s="19"/>
+      <c r="N29" s="19"/>
+      <c r="O29" s="19"/>
+      <c r="P29" s="23"/>
     </row>
     <row r="30" ht="18" customHeight="1" spans="1:16">
       <c r="A30" s="1"/>
       <c r="B30" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C30" s="1"/>
+        <v>52</v>
+      </c>
+      <c r="C30" s="11" t="s">
+        <v>53</v>
+      </c>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
-      <c r="J30" s="15"/>
-      <c r="K30" s="16"/>
-      <c r="L30" s="16"/>
-      <c r="M30" s="16"/>
-      <c r="N30" s="16"/>
-      <c r="O30" s="16"/>
-      <c r="P30" s="20"/>
+      <c r="J30" s="18"/>
+      <c r="K30" s="19"/>
+      <c r="L30" s="19"/>
+      <c r="M30" s="19"/>
+      <c r="N30" s="19"/>
+      <c r="O30" s="19"/>
+      <c r="P30" s="23"/>
     </row>
     <row r="31" ht="18" customHeight="1" spans="1:16">
       <c r="A31" s="1"/>
       <c r="B31" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C31" s="1"/>
+        <v>54</v>
+      </c>
+      <c r="C31" s="13"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
-      <c r="J31" s="15"/>
-      <c r="K31" s="16"/>
-      <c r="L31" s="16"/>
-      <c r="M31" s="16"/>
-      <c r="N31" s="16"/>
-      <c r="O31" s="16"/>
-      <c r="P31" s="20"/>
+      <c r="J31" s="18"/>
+      <c r="K31" s="19"/>
+      <c r="L31" s="19"/>
+      <c r="M31" s="19"/>
+      <c r="N31" s="19"/>
+      <c r="O31" s="19"/>
+      <c r="P31" s="23"/>
     </row>
     <row r="32" ht="18" customHeight="1" spans="1:16">
       <c r="A32" s="1"/>
       <c r="B32" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>56</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
-      <c r="J32" s="15"/>
-      <c r="K32" s="16"/>
-      <c r="L32" s="16"/>
-      <c r="M32" s="16"/>
-      <c r="N32" s="16"/>
-      <c r="O32" s="16"/>
-      <c r="P32" s="20"/>
+      <c r="J32" s="18"/>
+      <c r="K32" s="19"/>
+      <c r="L32" s="19"/>
+      <c r="M32" s="19"/>
+      <c r="N32" s="19"/>
+      <c r="O32" s="19"/>
+      <c r="P32" s="23"/>
     </row>
     <row r="33" ht="18" customHeight="1" spans="1:16">
       <c r="A33" s="1"/>
       <c r="B33" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>58</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
-      <c r="J33" s="15"/>
-      <c r="K33" s="16"/>
-      <c r="L33" s="16"/>
-      <c r="M33" s="16"/>
-      <c r="N33" s="16"/>
-      <c r="O33" s="16"/>
-      <c r="P33" s="20"/>
+      <c r="J33" s="18"/>
+      <c r="K33" s="19"/>
+      <c r="L33" s="19"/>
+      <c r="M33" s="19"/>
+      <c r="N33" s="19"/>
+      <c r="O33" s="19"/>
+      <c r="P33" s="23"/>
     </row>
     <row r="34" ht="18" customHeight="1" spans="1:16">
       <c r="A34" s="1"/>
       <c r="B34" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>60</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
-      <c r="J34" s="15"/>
-      <c r="K34" s="16"/>
-      <c r="L34" s="16"/>
-      <c r="M34" s="16"/>
-      <c r="N34" s="16"/>
-      <c r="O34" s="16"/>
-      <c r="P34" s="20"/>
+      <c r="J34" s="18"/>
+      <c r="K34" s="19"/>
+      <c r="L34" s="19"/>
+      <c r="M34" s="19"/>
+      <c r="N34" s="19"/>
+      <c r="O34" s="19"/>
+      <c r="P34" s="23"/>
     </row>
     <row r="35" spans="1:16">
-      <c r="A35" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="B35" s="11"/>
-      <c r="C35" s="11"/>
-      <c r="D35" s="11"/>
-      <c r="E35" s="11"/>
-      <c r="F35" s="11"/>
-      <c r="G35" s="11"/>
-      <c r="H35" s="11"/>
-      <c r="I35" s="11"/>
-      <c r="J35" s="15"/>
-      <c r="K35" s="16"/>
-      <c r="L35" s="16"/>
-      <c r="M35" s="16"/>
-      <c r="N35" s="16"/>
-      <c r="O35" s="16"/>
-      <c r="P35" s="20"/>
+      <c r="A35" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="B35" s="14"/>
+      <c r="C35" s="14"/>
+      <c r="D35" s="14"/>
+      <c r="E35" s="14"/>
+      <c r="F35" s="14"/>
+      <c r="G35" s="14"/>
+      <c r="H35" s="14"/>
+      <c r="I35" s="14"/>
+      <c r="J35" s="18"/>
+      <c r="K35" s="19"/>
+      <c r="L35" s="19"/>
+      <c r="M35" s="19"/>
+      <c r="N35" s="19"/>
+      <c r="O35" s="19"/>
+      <c r="P35" s="23"/>
     </row>
     <row r="36" spans="1:16">
-      <c r="A36" s="11"/>
-      <c r="B36" s="11"/>
-      <c r="C36" s="11"/>
-      <c r="D36" s="11"/>
-      <c r="E36" s="11"/>
-      <c r="F36" s="11"/>
-      <c r="G36" s="11"/>
-      <c r="H36" s="11"/>
-      <c r="I36" s="11"/>
-      <c r="J36" s="15"/>
-      <c r="K36" s="16"/>
-      <c r="L36" s="16"/>
-      <c r="M36" s="16"/>
-      <c r="N36" s="16"/>
-      <c r="O36" s="16"/>
-      <c r="P36" s="20"/>
+      <c r="A36" s="14"/>
+      <c r="B36" s="14"/>
+      <c r="C36" s="14"/>
+      <c r="D36" s="14"/>
+      <c r="E36" s="14"/>
+      <c r="F36" s="14"/>
+      <c r="G36" s="14"/>
+      <c r="H36" s="14"/>
+      <c r="I36" s="14"/>
+      <c r="J36" s="18"/>
+      <c r="K36" s="19"/>
+      <c r="L36" s="19"/>
+      <c r="M36" s="19"/>
+      <c r="N36" s="19"/>
+      <c r="O36" s="19"/>
+      <c r="P36" s="23"/>
     </row>
     <row r="37" spans="1:16">
-      <c r="A37" s="11"/>
-      <c r="B37" s="11"/>
-      <c r="C37" s="11"/>
-      <c r="D37" s="11"/>
-      <c r="E37" s="11"/>
-      <c r="F37" s="11"/>
-      <c r="G37" s="11"/>
-      <c r="H37" s="11"/>
-      <c r="I37" s="11"/>
-      <c r="J37" s="15"/>
-      <c r="K37" s="16"/>
-      <c r="L37" s="16"/>
-      <c r="M37" s="16"/>
-      <c r="N37" s="16"/>
-      <c r="O37" s="16"/>
-      <c r="P37" s="20"/>
+      <c r="A37" s="14"/>
+      <c r="B37" s="14"/>
+      <c r="C37" s="14"/>
+      <c r="D37" s="14"/>
+      <c r="E37" s="14"/>
+      <c r="F37" s="14"/>
+      <c r="G37" s="14"/>
+      <c r="H37" s="14"/>
+      <c r="I37" s="14"/>
+      <c r="J37" s="18"/>
+      <c r="K37" s="19"/>
+      <c r="L37" s="19"/>
+      <c r="M37" s="19"/>
+      <c r="N37" s="19"/>
+      <c r="O37" s="19"/>
+      <c r="P37" s="23"/>
     </row>
     <row r="38" spans="1:16">
-      <c r="A38" s="11"/>
-      <c r="B38" s="11"/>
-      <c r="C38" s="11"/>
-      <c r="D38" s="11"/>
-      <c r="E38" s="11"/>
-      <c r="F38" s="11"/>
-      <c r="G38" s="11"/>
-      <c r="H38" s="11"/>
-      <c r="I38" s="11"/>
-      <c r="J38" s="17"/>
-      <c r="K38" s="18"/>
-      <c r="L38" s="18"/>
-      <c r="M38" s="18"/>
-      <c r="N38" s="18"/>
-      <c r="O38" s="18"/>
-      <c r="P38" s="21"/>
+      <c r="A38" s="14"/>
+      <c r="B38" s="14"/>
+      <c r="C38" s="14"/>
+      <c r="D38" s="14"/>
+      <c r="E38" s="14"/>
+      <c r="F38" s="14"/>
+      <c r="G38" s="14"/>
+      <c r="H38" s="14"/>
+      <c r="I38" s="14"/>
+      <c r="J38" s="20"/>
+      <c r="K38" s="21"/>
+      <c r="L38" s="21"/>
+      <c r="M38" s="21"/>
+      <c r="N38" s="21"/>
+      <c r="O38" s="21"/>
+      <c r="P38" s="24"/>
     </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="14">
     <mergeCell ref="A2:A11"/>
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A16:A22"/>
@@ -2409,6 +2428,8 @@
     <mergeCell ref="C12:C14"/>
     <mergeCell ref="C15:C18"/>
     <mergeCell ref="C19:C21"/>
+    <mergeCell ref="C23:C29"/>
+    <mergeCell ref="C30:C31"/>
     <mergeCell ref="A35:I38"/>
     <mergeCell ref="J1:P16"/>
     <mergeCell ref="J17:P38"/>

--- a/2018.10.29-2018.11.4.xlsx
+++ b/2018.10.29-2018.11.4.xlsx
@@ -9,12 +9,12 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525" calcCompleted="0" calcOnSave="0"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="70">
   <si>
     <t>时间段</t>
   </si>
@@ -189,9 +189,15 @@
     <t>看beam文档</t>
   </si>
   <si>
+    <t>吃早饭</t>
+  </si>
+  <si>
     <t>08：30-09：00</t>
   </si>
   <si>
+    <t>学习基本数据类型以及运算符，主要学习了对于补码的计算，包括为什么byte的取值范围是[-128-127]</t>
+  </si>
+  <si>
     <t>09：00-09：30</t>
   </si>
   <si>
@@ -225,6 +231,9 @@
     <t>午休</t>
   </si>
   <si>
+    <t>开党会</t>
+  </si>
+  <si>
     <t>12：30-13：00</t>
   </si>
   <si>
@@ -246,18 +255,27 @@
     <t>15：00-15：30</t>
   </si>
   <si>
+    <t>继续将早上补码搞清楚</t>
+  </si>
+  <si>
     <t>每周有意义的事总结：</t>
   </si>
   <si>
     <t>15：30-16：00</t>
   </si>
   <si>
+    <t>开始学习逻辑运算符等</t>
+  </si>
+  <si>
     <t>16：00-16：30</t>
   </si>
   <si>
     <t>看nowcoder关于大数据的实习，写自己的计划</t>
   </si>
   <si>
+    <t>学习其他运算符，包括条件、三目等，学习循环、判断等语句</t>
+  </si>
+  <si>
     <t>16：30-17：00</t>
   </si>
   <si>
@@ -279,10 +297,16 @@
     <t>牛客网收集各公司关于大数据岗位的实习信息，并整理，然后按照自己的思路来制定学习计划</t>
   </si>
   <si>
+    <t>看视频</t>
+  </si>
+  <si>
     <t>18：30-19：00</t>
   </si>
   <si>
     <t>19：00-19：30</t>
+  </si>
+  <si>
+    <t>继续学习数组的内容，包括java中内存空间的说明，包括堆栈以及方法区的内存分配，以及存放哪些对象，还是没有太清楚，需要进一步学习</t>
   </si>
   <si>
     <t>19：30-20：00</t>
@@ -337,9 +361,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -373,9 +397,47 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -387,18 +449,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -410,9 +465,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -427,15 +489,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -450,15 +511,8 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -466,39 +520,9 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -542,7 +566,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -563,13 +587,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -581,31 +695,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -617,19 +749,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -641,109 +773,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -898,6 +928,24 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -930,29 +978,26 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -971,172 +1016,157 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="32" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1158,25 +1188,43 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1534,7 +1582,7 @@
   <dimension ref="A1:P38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1571,15 +1619,15 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="15" t="s">
+      <c r="J1" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="15"/>
-      <c r="L1" s="15"/>
-      <c r="M1" s="15"/>
-      <c r="N1" s="15"/>
-      <c r="O1" s="15"/>
-      <c r="P1" s="15"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="21"/>
+      <c r="M1" s="21"/>
+      <c r="N1" s="21"/>
+      <c r="O1" s="21"/>
+      <c r="P1" s="21"/>
     </row>
     <row r="2" ht="18" customHeight="1" spans="1:16">
       <c r="A2" s="1" t="s">
@@ -1591,7 +1639,7 @@
       <c r="C2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E2" s="1" t="s">
@@ -1605,13 +1653,13 @@
       </c>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
-      <c r="J2" s="15"/>
-      <c r="K2" s="15"/>
-      <c r="L2" s="15"/>
-      <c r="M2" s="15"/>
-      <c r="N2" s="15"/>
-      <c r="O2" s="15"/>
-      <c r="P2" s="15"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="21"/>
+      <c r="M2" s="21"/>
+      <c r="N2" s="21"/>
+      <c r="O2" s="21"/>
+      <c r="P2" s="21"/>
     </row>
     <row r="3" ht="18" customHeight="1" spans="1:16">
       <c r="A3" s="1"/>
@@ -1621,7 +1669,7 @@
       <c r="C3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E3" s="2" t="s">
@@ -1635,13 +1683,13 @@
       </c>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
-      <c r="J3" s="15"/>
-      <c r="K3" s="15"/>
-      <c r="L3" s="15"/>
-      <c r="M3" s="15"/>
-      <c r="N3" s="15"/>
-      <c r="O3" s="15"/>
-      <c r="P3" s="15"/>
+      <c r="J3" s="21"/>
+      <c r="K3" s="21"/>
+      <c r="L3" s="21"/>
+      <c r="M3" s="21"/>
+      <c r="N3" s="21"/>
+      <c r="O3" s="21"/>
+      <c r="P3" s="21"/>
     </row>
     <row r="4" ht="18" customHeight="1" spans="1:16">
       <c r="A4" s="1"/>
@@ -1651,774 +1699,790 @@
       <c r="C4" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="1"/>
+      <c r="D4" s="3" t="s">
+        <v>16</v>
+      </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
-      <c r="J4" s="15"/>
-      <c r="K4" s="15"/>
-      <c r="L4" s="15"/>
-      <c r="M4" s="15"/>
-      <c r="N4" s="15"/>
-      <c r="O4" s="15"/>
-      <c r="P4" s="15"/>
+      <c r="J4" s="21"/>
+      <c r="K4" s="21"/>
+      <c r="L4" s="21"/>
+      <c r="M4" s="21"/>
+      <c r="N4" s="21"/>
+      <c r="O4" s="21"/>
+      <c r="P4" s="21"/>
     </row>
     <row r="5" ht="18" customHeight="1" spans="1:16">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C5" s="6"/>
-      <c r="D5" s="1"/>
+      <c r="D5" s="7" t="s">
+        <v>18</v>
+      </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
-      <c r="J5" s="15"/>
-      <c r="K5" s="15"/>
-      <c r="L5" s="15"/>
-      <c r="M5" s="15"/>
-      <c r="N5" s="15"/>
-      <c r="O5" s="15"/>
-      <c r="P5" s="15"/>
+      <c r="J5" s="21"/>
+      <c r="K5" s="21"/>
+      <c r="L5" s="21"/>
+      <c r="M5" s="21"/>
+      <c r="N5" s="21"/>
+      <c r="O5" s="21"/>
+      <c r="P5" s="21"/>
     </row>
     <row r="6" ht="18" customHeight="1" spans="1:16">
       <c r="A6" s="1"/>
       <c r="B6" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" s="1"/>
+        <v>20</v>
+      </c>
+      <c r="D6" s="8"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
-      <c r="J6" s="15"/>
-      <c r="K6" s="15"/>
-      <c r="L6" s="15"/>
-      <c r="M6" s="15"/>
-      <c r="N6" s="15"/>
-      <c r="O6" s="15"/>
-      <c r="P6" s="15"/>
+      <c r="J6" s="21"/>
+      <c r="K6" s="21"/>
+      <c r="L6" s="21"/>
+      <c r="M6" s="21"/>
+      <c r="N6" s="21"/>
+      <c r="O6" s="21"/>
+      <c r="P6" s="21"/>
     </row>
     <row r="7" ht="18" customHeight="1" spans="1:16">
       <c r="A7" s="1"/>
       <c r="B7" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="7"/>
-      <c r="D7" s="1"/>
+        <v>21</v>
+      </c>
+      <c r="C7" s="9"/>
+      <c r="D7" s="8"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
-      <c r="J7" s="15"/>
-      <c r="K7" s="15"/>
-      <c r="L7" s="15"/>
-      <c r="M7" s="15"/>
-      <c r="N7" s="15"/>
-      <c r="O7" s="15"/>
-      <c r="P7" s="15"/>
+      <c r="J7" s="21"/>
+      <c r="K7" s="21"/>
+      <c r="L7" s="21"/>
+      <c r="M7" s="21"/>
+      <c r="N7" s="21"/>
+      <c r="O7" s="21"/>
+      <c r="P7" s="21"/>
     </row>
     <row r="8" ht="18" customHeight="1" spans="1:16">
       <c r="A8" s="1"/>
       <c r="B8" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" s="7"/>
-      <c r="D8" s="1"/>
+        <v>22</v>
+      </c>
+      <c r="C8" s="9"/>
+      <c r="D8" s="8"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
-      <c r="J8" s="15"/>
-      <c r="K8" s="15"/>
-      <c r="L8" s="15"/>
-      <c r="M8" s="15"/>
-      <c r="N8" s="15"/>
-      <c r="O8" s="15"/>
-      <c r="P8" s="15"/>
+      <c r="J8" s="21"/>
+      <c r="K8" s="21"/>
+      <c r="L8" s="21"/>
+      <c r="M8" s="21"/>
+      <c r="N8" s="21"/>
+      <c r="O8" s="21"/>
+      <c r="P8" s="21"/>
     </row>
     <row r="9" ht="18" customHeight="1" spans="1:16">
       <c r="A9" s="1"/>
       <c r="B9" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" s="7"/>
-      <c r="D9" s="1"/>
+        <v>23</v>
+      </c>
+      <c r="C9" s="9"/>
+      <c r="D9" s="8"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
-      <c r="J9" s="15"/>
-      <c r="K9" s="15"/>
-      <c r="L9" s="15"/>
-      <c r="M9" s="15"/>
-      <c r="N9" s="15"/>
-      <c r="O9" s="15"/>
-      <c r="P9" s="15"/>
+      <c r="J9" s="21"/>
+      <c r="K9" s="21"/>
+      <c r="L9" s="21"/>
+      <c r="M9" s="21"/>
+      <c r="N9" s="21"/>
+      <c r="O9" s="21"/>
+      <c r="P9" s="21"/>
     </row>
     <row r="10" ht="18" customHeight="1" spans="1:16">
       <c r="A10" s="1"/>
       <c r="B10" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C10" s="6"/>
-      <c r="D10" s="1"/>
+      <c r="D10" s="10"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
-      <c r="J10" s="15"/>
-      <c r="K10" s="15"/>
-      <c r="L10" s="15"/>
-      <c r="M10" s="15"/>
-      <c r="N10" s="15"/>
-      <c r="O10" s="15"/>
-      <c r="P10" s="15"/>
+      <c r="J10" s="21"/>
+      <c r="K10" s="21"/>
+      <c r="L10" s="21"/>
+      <c r="M10" s="21"/>
+      <c r="N10" s="21"/>
+      <c r="O10" s="21"/>
+      <c r="P10" s="21"/>
     </row>
     <row r="11" ht="18" customHeight="1" spans="1:16">
       <c r="A11" s="1"/>
       <c r="B11" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
-      <c r="J11" s="15"/>
-      <c r="K11" s="15"/>
-      <c r="L11" s="15"/>
-      <c r="M11" s="15"/>
-      <c r="N11" s="15"/>
-      <c r="O11" s="15"/>
-      <c r="P11" s="15"/>
+      <c r="J11" s="21"/>
+      <c r="K11" s="21"/>
+      <c r="L11" s="21"/>
+      <c r="M11" s="21"/>
+      <c r="N11" s="21"/>
+      <c r="O11" s="21"/>
+      <c r="P11" s="21"/>
     </row>
     <row r="12" ht="18" customHeight="1" spans="1:16">
       <c r="A12" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="D12" s="1"/>
+        <v>28</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>30</v>
+      </c>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
-      <c r="J12" s="15"/>
-      <c r="K12" s="15"/>
-      <c r="L12" s="15"/>
-      <c r="M12" s="15"/>
-      <c r="N12" s="15"/>
-      <c r="O12" s="15"/>
-      <c r="P12" s="15"/>
+      <c r="J12" s="21"/>
+      <c r="K12" s="21"/>
+      <c r="L12" s="21"/>
+      <c r="M12" s="21"/>
+      <c r="N12" s="21"/>
+      <c r="O12" s="21"/>
+      <c r="P12" s="21"/>
     </row>
     <row r="13" ht="18" customHeight="1" spans="1:16">
       <c r="A13" s="1"/>
       <c r="B13" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C13" s="9"/>
-      <c r="D13" s="1"/>
+        <v>31</v>
+      </c>
+      <c r="C13" s="13"/>
+      <c r="D13" s="14"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
-      <c r="J13" s="15"/>
-      <c r="K13" s="15"/>
-      <c r="L13" s="15"/>
-      <c r="M13" s="15"/>
-      <c r="N13" s="15"/>
-      <c r="O13" s="15"/>
-      <c r="P13" s="15"/>
+      <c r="J13" s="21"/>
+      <c r="K13" s="21"/>
+      <c r="L13" s="21"/>
+      <c r="M13" s="21"/>
+      <c r="N13" s="21"/>
+      <c r="O13" s="21"/>
+      <c r="P13" s="21"/>
     </row>
     <row r="14" ht="18" customHeight="1" spans="1:16">
       <c r="A14" s="1"/>
       <c r="B14" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" s="15"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C14" s="10"/>
-      <c r="D14" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="F14" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
-      <c r="J14" s="15"/>
-      <c r="K14" s="15"/>
-      <c r="L14" s="15"/>
-      <c r="M14" s="15"/>
-      <c r="N14" s="15"/>
-      <c r="O14" s="15"/>
-      <c r="P14" s="15"/>
+      <c r="J14" s="21"/>
+      <c r="K14" s="21"/>
+      <c r="L14" s="21"/>
+      <c r="M14" s="21"/>
+      <c r="N14" s="21"/>
+      <c r="O14" s="21"/>
+      <c r="P14" s="21"/>
     </row>
     <row r="15" ht="18" customHeight="1" spans="1:16">
       <c r="A15" s="1"/>
       <c r="B15" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="D15" s="1"/>
+        <v>34</v>
+      </c>
+      <c r="D15" s="17" t="s">
+        <v>29</v>
+      </c>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
-      <c r="J15" s="15"/>
-      <c r="K15" s="15"/>
-      <c r="L15" s="15"/>
-      <c r="M15" s="15"/>
-      <c r="N15" s="15"/>
-      <c r="O15" s="15"/>
-      <c r="P15" s="15"/>
+      <c r="J15" s="21"/>
+      <c r="K15" s="21"/>
+      <c r="L15" s="21"/>
+      <c r="M15" s="21"/>
+      <c r="N15" s="21"/>
+      <c r="O15" s="21"/>
+      <c r="P15" s="21"/>
     </row>
     <row r="16" ht="18" customHeight="1" spans="1:16">
       <c r="A16" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C16" s="7"/>
-      <c r="D16" s="1"/>
+        <v>36</v>
+      </c>
+      <c r="C16" s="9"/>
+      <c r="D16" s="18"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
-      <c r="J16" s="15"/>
-      <c r="K16" s="15"/>
-      <c r="L16" s="15"/>
-      <c r="M16" s="15"/>
-      <c r="N16" s="15"/>
-      <c r="O16" s="15"/>
-      <c r="P16" s="15"/>
+      <c r="J16" s="21"/>
+      <c r="K16" s="21"/>
+      <c r="L16" s="21"/>
+      <c r="M16" s="21"/>
+      <c r="N16" s="21"/>
+      <c r="O16" s="21"/>
+      <c r="P16" s="21"/>
     </row>
     <row r="17" ht="18" customHeight="1" spans="1:16">
       <c r="A17" s="1"/>
       <c r="B17" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C17" s="7"/>
-      <c r="D17" s="1"/>
+        <v>37</v>
+      </c>
+      <c r="C17" s="9"/>
+      <c r="D17" s="19" t="s">
+        <v>38</v>
+      </c>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
-      <c r="J17" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="K17" s="17"/>
-      <c r="L17" s="17"/>
-      <c r="M17" s="17"/>
-      <c r="N17" s="17"/>
-      <c r="O17" s="17"/>
-      <c r="P17" s="22"/>
+      <c r="J17" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="K17" s="23"/>
+      <c r="L17" s="23"/>
+      <c r="M17" s="23"/>
+      <c r="N17" s="23"/>
+      <c r="O17" s="23"/>
+      <c r="P17" s="28"/>
     </row>
     <row r="18" ht="18" customHeight="1" spans="1:16">
       <c r="A18" s="1"/>
       <c r="B18" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C18" s="6"/>
-      <c r="D18" s="1"/>
+      <c r="D18" s="19" t="s">
+        <v>41</v>
+      </c>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
-      <c r="J18" s="18"/>
-      <c r="K18" s="19"/>
-      <c r="L18" s="19"/>
-      <c r="M18" s="19"/>
-      <c r="N18" s="19"/>
-      <c r="O18" s="19"/>
-      <c r="P18" s="23"/>
+      <c r="J18" s="24"/>
+      <c r="K18" s="25"/>
+      <c r="L18" s="25"/>
+      <c r="M18" s="25"/>
+      <c r="N18" s="25"/>
+      <c r="O18" s="25"/>
+      <c r="P18" s="29"/>
     </row>
     <row r="19" ht="18" customHeight="1" spans="1:16">
       <c r="A19" s="1"/>
       <c r="B19" s="1" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="D19" s="1"/>
+        <v>43</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>44</v>
+      </c>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
-      <c r="J19" s="18"/>
-      <c r="K19" s="19"/>
-      <c r="L19" s="19"/>
-      <c r="M19" s="19"/>
-      <c r="N19" s="19"/>
-      <c r="O19" s="19"/>
-      <c r="P19" s="23"/>
+      <c r="J19" s="24"/>
+      <c r="K19" s="25"/>
+      <c r="L19" s="25"/>
+      <c r="M19" s="25"/>
+      <c r="N19" s="25"/>
+      <c r="O19" s="25"/>
+      <c r="P19" s="29"/>
     </row>
     <row r="20" ht="18" customHeight="1" spans="1:16">
       <c r="A20" s="1"/>
       <c r="B20" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C20" s="7"/>
-      <c r="D20" s="1"/>
+        <v>45</v>
+      </c>
+      <c r="C20" s="9"/>
+      <c r="D20" s="8"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
-      <c r="J20" s="18"/>
-      <c r="K20" s="19"/>
-      <c r="L20" s="19"/>
-      <c r="M20" s="19"/>
-      <c r="N20" s="19"/>
-      <c r="O20" s="19"/>
-      <c r="P20" s="23"/>
+      <c r="J20" s="24"/>
+      <c r="K20" s="25"/>
+      <c r="L20" s="25"/>
+      <c r="M20" s="25"/>
+      <c r="N20" s="25"/>
+      <c r="O20" s="25"/>
+      <c r="P20" s="29"/>
     </row>
     <row r="21" ht="18" customHeight="1" spans="1:16">
       <c r="A21" s="1"/>
       <c r="B21" s="1" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="C21" s="6"/>
-      <c r="D21" s="1"/>
+      <c r="D21" s="10"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
-      <c r="J21" s="18"/>
-      <c r="K21" s="19"/>
-      <c r="L21" s="19"/>
-      <c r="M21" s="19"/>
-      <c r="N21" s="19"/>
-      <c r="O21" s="19"/>
-      <c r="P21" s="23"/>
+      <c r="J21" s="24"/>
+      <c r="K21" s="25"/>
+      <c r="L21" s="25"/>
+      <c r="M21" s="25"/>
+      <c r="N21" s="25"/>
+      <c r="O21" s="25"/>
+      <c r="P21" s="29"/>
     </row>
     <row r="22" ht="18" customHeight="1" spans="1:16">
       <c r="A22" s="1"/>
       <c r="B22" s="1" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>42</v>
+        <v>48</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>48</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
-      <c r="J22" s="18"/>
-      <c r="K22" s="19"/>
-      <c r="L22" s="19"/>
-      <c r="M22" s="19"/>
-      <c r="N22" s="19"/>
-      <c r="O22" s="19"/>
-      <c r="P22" s="23"/>
+      <c r="J22" s="24"/>
+      <c r="K22" s="25"/>
+      <c r="L22" s="25"/>
+      <c r="M22" s="25"/>
+      <c r="N22" s="25"/>
+      <c r="O22" s="25"/>
+      <c r="P22" s="29"/>
     </row>
     <row r="23" ht="18" customHeight="1" spans="1:16">
       <c r="A23" s="1" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C23" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="D23" s="1"/>
+        <v>50</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D23" s="17" t="s">
+        <v>52</v>
+      </c>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
-      <c r="J23" s="18"/>
-      <c r="K23" s="19"/>
-      <c r="L23" s="19"/>
-      <c r="M23" s="19"/>
-      <c r="N23" s="19"/>
-      <c r="O23" s="19"/>
-      <c r="P23" s="23"/>
+      <c r="J23" s="24"/>
+      <c r="K23" s="25"/>
+      <c r="L23" s="25"/>
+      <c r="M23" s="25"/>
+      <c r="N23" s="25"/>
+      <c r="O23" s="25"/>
+      <c r="P23" s="29"/>
     </row>
     <row r="24" ht="18" customHeight="1" spans="1:16">
       <c r="A24" s="1"/>
       <c r="B24" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C24" s="12"/>
-      <c r="D24" s="1"/>
+        <v>53</v>
+      </c>
+      <c r="C24" s="9"/>
+      <c r="D24" s="18"/>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
-      <c r="J24" s="18"/>
-      <c r="K24" s="19"/>
-      <c r="L24" s="19"/>
-      <c r="M24" s="19"/>
-      <c r="N24" s="19"/>
-      <c r="O24" s="19"/>
-      <c r="P24" s="23"/>
+      <c r="J24" s="24"/>
+      <c r="K24" s="25"/>
+      <c r="L24" s="25"/>
+      <c r="M24" s="25"/>
+      <c r="N24" s="25"/>
+      <c r="O24" s="25"/>
+      <c r="P24" s="29"/>
     </row>
     <row r="25" ht="18" customHeight="1" spans="1:16">
       <c r="A25" s="1"/>
       <c r="B25" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C25" s="12"/>
-      <c r="D25" s="1"/>
+        <v>54</v>
+      </c>
+      <c r="C25" s="9"/>
+      <c r="D25" s="7" t="s">
+        <v>55</v>
+      </c>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
-      <c r="J25" s="18"/>
-      <c r="K25" s="19"/>
-      <c r="L25" s="19"/>
-      <c r="M25" s="19"/>
-      <c r="N25" s="19"/>
-      <c r="O25" s="19"/>
-      <c r="P25" s="23"/>
+      <c r="J25" s="24"/>
+      <c r="K25" s="25"/>
+      <c r="L25" s="25"/>
+      <c r="M25" s="25"/>
+      <c r="N25" s="25"/>
+      <c r="O25" s="25"/>
+      <c r="P25" s="29"/>
     </row>
     <row r="26" ht="18" customHeight="1" spans="1:16">
       <c r="A26" s="1"/>
       <c r="B26" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C26" s="12"/>
-      <c r="D26" s="1"/>
+        <v>56</v>
+      </c>
+      <c r="C26" s="9"/>
+      <c r="D26" s="8"/>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
-      <c r="J26" s="18"/>
-      <c r="K26" s="19"/>
-      <c r="L26" s="19"/>
-      <c r="M26" s="19"/>
-      <c r="N26" s="19"/>
-      <c r="O26" s="19"/>
-      <c r="P26" s="23"/>
+      <c r="J26" s="24"/>
+      <c r="K26" s="25"/>
+      <c r="L26" s="25"/>
+      <c r="M26" s="25"/>
+      <c r="N26" s="25"/>
+      <c r="O26" s="25"/>
+      <c r="P26" s="29"/>
     </row>
     <row r="27" ht="18" customHeight="1" spans="1:16">
       <c r="A27" s="1"/>
       <c r="B27" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C27" s="12"/>
-      <c r="D27" s="1"/>
+        <v>57</v>
+      </c>
+      <c r="C27" s="9"/>
+      <c r="D27" s="8"/>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
-      <c r="J27" s="18"/>
-      <c r="K27" s="19"/>
-      <c r="L27" s="19"/>
-      <c r="M27" s="19"/>
-      <c r="N27" s="19"/>
-      <c r="O27" s="19"/>
-      <c r="P27" s="23"/>
+      <c r="J27" s="24"/>
+      <c r="K27" s="25"/>
+      <c r="L27" s="25"/>
+      <c r="M27" s="25"/>
+      <c r="N27" s="25"/>
+      <c r="O27" s="25"/>
+      <c r="P27" s="29"/>
     </row>
     <row r="28" ht="18" customHeight="1" spans="1:16">
       <c r="A28" s="1"/>
       <c r="B28" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C28" s="12"/>
-      <c r="D28" s="1"/>
+        <v>58</v>
+      </c>
+      <c r="C28" s="9"/>
+      <c r="D28" s="8"/>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
-      <c r="J28" s="18"/>
-      <c r="K28" s="19"/>
-      <c r="L28" s="19"/>
-      <c r="M28" s="19"/>
-      <c r="N28" s="19"/>
-      <c r="O28" s="19"/>
-      <c r="P28" s="23"/>
+      <c r="J28" s="24"/>
+      <c r="K28" s="25"/>
+      <c r="L28" s="25"/>
+      <c r="M28" s="25"/>
+      <c r="N28" s="25"/>
+      <c r="O28" s="25"/>
+      <c r="P28" s="29"/>
     </row>
     <row r="29" ht="18" customHeight="1" spans="1:16">
       <c r="A29" s="1"/>
       <c r="B29" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C29" s="13"/>
-      <c r="D29" s="1"/>
+        <v>59</v>
+      </c>
+      <c r="C29" s="6"/>
+      <c r="D29" s="8"/>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
-      <c r="J29" s="18"/>
-      <c r="K29" s="19"/>
-      <c r="L29" s="19"/>
-      <c r="M29" s="19"/>
-      <c r="N29" s="19"/>
-      <c r="O29" s="19"/>
-      <c r="P29" s="23"/>
+      <c r="J29" s="24"/>
+      <c r="K29" s="25"/>
+      <c r="L29" s="25"/>
+      <c r="M29" s="25"/>
+      <c r="N29" s="25"/>
+      <c r="O29" s="25"/>
+      <c r="P29" s="29"/>
     </row>
     <row r="30" ht="18" customHeight="1" spans="1:16">
       <c r="A30" s="1"/>
       <c r="B30" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C30" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="D30" s="1"/>
+        <v>60</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="D30" s="8"/>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
-      <c r="J30" s="18"/>
-      <c r="K30" s="19"/>
-      <c r="L30" s="19"/>
-      <c r="M30" s="19"/>
-      <c r="N30" s="19"/>
-      <c r="O30" s="19"/>
-      <c r="P30" s="23"/>
+      <c r="J30" s="24"/>
+      <c r="K30" s="25"/>
+      <c r="L30" s="25"/>
+      <c r="M30" s="25"/>
+      <c r="N30" s="25"/>
+      <c r="O30" s="25"/>
+      <c r="P30" s="29"/>
     </row>
     <row r="31" ht="18" customHeight="1" spans="1:16">
       <c r="A31" s="1"/>
       <c r="B31" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C31" s="13"/>
-      <c r="D31" s="1"/>
+        <v>62</v>
+      </c>
+      <c r="C31" s="6"/>
+      <c r="D31" s="10"/>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
-      <c r="J31" s="18"/>
-      <c r="K31" s="19"/>
-      <c r="L31" s="19"/>
-      <c r="M31" s="19"/>
-      <c r="N31" s="19"/>
-      <c r="O31" s="19"/>
-      <c r="P31" s="23"/>
+      <c r="J31" s="24"/>
+      <c r="K31" s="25"/>
+      <c r="L31" s="25"/>
+      <c r="M31" s="25"/>
+      <c r="N31" s="25"/>
+      <c r="O31" s="25"/>
+      <c r="P31" s="29"/>
     </row>
     <row r="32" ht="18" customHeight="1" spans="1:16">
       <c r="A32" s="1"/>
       <c r="B32" s="1" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>56</v>
+        <v>64</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>64</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
-      <c r="J32" s="18"/>
-      <c r="K32" s="19"/>
-      <c r="L32" s="19"/>
-      <c r="M32" s="19"/>
-      <c r="N32" s="19"/>
-      <c r="O32" s="19"/>
-      <c r="P32" s="23"/>
+      <c r="J32" s="24"/>
+      <c r="K32" s="25"/>
+      <c r="L32" s="25"/>
+      <c r="M32" s="25"/>
+      <c r="N32" s="25"/>
+      <c r="O32" s="25"/>
+      <c r="P32" s="29"/>
     </row>
     <row r="33" ht="18" customHeight="1" spans="1:16">
       <c r="A33" s="1"/>
       <c r="B33" s="1" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>58</v>
+        <v>66</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>66</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
-      <c r="J33" s="18"/>
-      <c r="K33" s="19"/>
-      <c r="L33" s="19"/>
-      <c r="M33" s="19"/>
-      <c r="N33" s="19"/>
-      <c r="O33" s="19"/>
-      <c r="P33" s="23"/>
+      <c r="J33" s="24"/>
+      <c r="K33" s="25"/>
+      <c r="L33" s="25"/>
+      <c r="M33" s="25"/>
+      <c r="N33" s="25"/>
+      <c r="O33" s="25"/>
+      <c r="P33" s="29"/>
     </row>
     <row r="34" ht="18" customHeight="1" spans="1:16">
       <c r="A34" s="1"/>
       <c r="B34" s="1" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>60</v>
+        <v>68</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>68</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
-      <c r="J34" s="18"/>
-      <c r="K34" s="19"/>
-      <c r="L34" s="19"/>
-      <c r="M34" s="19"/>
-      <c r="N34" s="19"/>
-      <c r="O34" s="19"/>
-      <c r="P34" s="23"/>
+      <c r="J34" s="24"/>
+      <c r="K34" s="25"/>
+      <c r="L34" s="25"/>
+      <c r="M34" s="25"/>
+      <c r="N34" s="25"/>
+      <c r="O34" s="25"/>
+      <c r="P34" s="29"/>
     </row>
     <row r="35" spans="1:16">
-      <c r="A35" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="B35" s="14"/>
-      <c r="C35" s="14"/>
-      <c r="D35" s="14"/>
-      <c r="E35" s="14"/>
-      <c r="F35" s="14"/>
-      <c r="G35" s="14"/>
-      <c r="H35" s="14"/>
-      <c r="I35" s="14"/>
-      <c r="J35" s="18"/>
-      <c r="K35" s="19"/>
-      <c r="L35" s="19"/>
-      <c r="M35" s="19"/>
-      <c r="N35" s="19"/>
-      <c r="O35" s="19"/>
-      <c r="P35" s="23"/>
+      <c r="A35" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="B35" s="20"/>
+      <c r="C35" s="20"/>
+      <c r="D35" s="20"/>
+      <c r="E35" s="20"/>
+      <c r="F35" s="20"/>
+      <c r="G35" s="20"/>
+      <c r="H35" s="20"/>
+      <c r="I35" s="20"/>
+      <c r="J35" s="24"/>
+      <c r="K35" s="25"/>
+      <c r="L35" s="25"/>
+      <c r="M35" s="25"/>
+      <c r="N35" s="25"/>
+      <c r="O35" s="25"/>
+      <c r="P35" s="29"/>
     </row>
     <row r="36" spans="1:16">
-      <c r="A36" s="14"/>
-      <c r="B36" s="14"/>
-      <c r="C36" s="14"/>
-      <c r="D36" s="14"/>
-      <c r="E36" s="14"/>
-      <c r="F36" s="14"/>
-      <c r="G36" s="14"/>
-      <c r="H36" s="14"/>
-      <c r="I36" s="14"/>
-      <c r="J36" s="18"/>
-      <c r="K36" s="19"/>
-      <c r="L36" s="19"/>
-      <c r="M36" s="19"/>
-      <c r="N36" s="19"/>
-      <c r="O36" s="19"/>
-      <c r="P36" s="23"/>
+      <c r="A36" s="20"/>
+      <c r="B36" s="20"/>
+      <c r="C36" s="20"/>
+      <c r="D36" s="20"/>
+      <c r="E36" s="20"/>
+      <c r="F36" s="20"/>
+      <c r="G36" s="20"/>
+      <c r="H36" s="20"/>
+      <c r="I36" s="20"/>
+      <c r="J36" s="24"/>
+      <c r="K36" s="25"/>
+      <c r="L36" s="25"/>
+      <c r="M36" s="25"/>
+      <c r="N36" s="25"/>
+      <c r="O36" s="25"/>
+      <c r="P36" s="29"/>
     </row>
     <row r="37" spans="1:16">
-      <c r="A37" s="14"/>
-      <c r="B37" s="14"/>
-      <c r="C37" s="14"/>
-      <c r="D37" s="14"/>
-      <c r="E37" s="14"/>
-      <c r="F37" s="14"/>
-      <c r="G37" s="14"/>
-      <c r="H37" s="14"/>
-      <c r="I37" s="14"/>
-      <c r="J37" s="18"/>
-      <c r="K37" s="19"/>
-      <c r="L37" s="19"/>
-      <c r="M37" s="19"/>
-      <c r="N37" s="19"/>
-      <c r="O37" s="19"/>
-      <c r="P37" s="23"/>
+      <c r="A37" s="20"/>
+      <c r="B37" s="20"/>
+      <c r="C37" s="20"/>
+      <c r="D37" s="20"/>
+      <c r="E37" s="20"/>
+      <c r="F37" s="20"/>
+      <c r="G37" s="20"/>
+      <c r="H37" s="20"/>
+      <c r="I37" s="20"/>
+      <c r="J37" s="24"/>
+      <c r="K37" s="25"/>
+      <c r="L37" s="25"/>
+      <c r="M37" s="25"/>
+      <c r="N37" s="25"/>
+      <c r="O37" s="25"/>
+      <c r="P37" s="29"/>
     </row>
     <row r="38" spans="1:16">
-      <c r="A38" s="14"/>
-      <c r="B38" s="14"/>
-      <c r="C38" s="14"/>
-      <c r="D38" s="14"/>
-      <c r="E38" s="14"/>
-      <c r="F38" s="14"/>
-      <c r="G38" s="14"/>
-      <c r="H38" s="14"/>
-      <c r="I38" s="14"/>
-      <c r="J38" s="20"/>
-      <c r="K38" s="21"/>
-      <c r="L38" s="21"/>
-      <c r="M38" s="21"/>
-      <c r="N38" s="21"/>
-      <c r="O38" s="21"/>
-      <c r="P38" s="24"/>
+      <c r="A38" s="20"/>
+      <c r="B38" s="20"/>
+      <c r="C38" s="20"/>
+      <c r="D38" s="20"/>
+      <c r="E38" s="20"/>
+      <c r="F38" s="20"/>
+      <c r="G38" s="20"/>
+      <c r="H38" s="20"/>
+      <c r="I38" s="20"/>
+      <c r="J38" s="26"/>
+      <c r="K38" s="27"/>
+      <c r="L38" s="27"/>
+      <c r="M38" s="27"/>
+      <c r="N38" s="27"/>
+      <c r="O38" s="27"/>
+      <c r="P38" s="30"/>
     </row>
   </sheetData>
-  <mergeCells count="14">
+  <mergeCells count="20">
     <mergeCell ref="A2:A11"/>
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A16:A22"/>
@@ -2430,6 +2494,12 @@
     <mergeCell ref="C19:C21"/>
     <mergeCell ref="C23:C29"/>
     <mergeCell ref="C30:C31"/>
+    <mergeCell ref="D5:D10"/>
+    <mergeCell ref="D12:D14"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="D19:D21"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="D25:D31"/>
     <mergeCell ref="A35:I38"/>
     <mergeCell ref="J1:P16"/>
     <mergeCell ref="J17:P38"/>

--- a/2018.10.29-2018.11.4.xlsx
+++ b/2018.10.29-2018.11.4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="75">
   <si>
     <t>时间段</t>
   </si>
@@ -192,6 +192,9 @@
     <t>吃早饭</t>
   </si>
   <si>
+    <t>学习视频第五天剩余的部分，看了一些其中总结的博客，效率不是很高，实验室很吵</t>
+  </si>
+  <si>
     <t>08：30-09：00</t>
   </si>
   <si>
@@ -246,6 +249,9 @@
     <t>重新搞自己的代码库 浏览github并fork了俩个repo关于找工作的</t>
   </si>
   <si>
+    <t>开心的去体育馆打羽毛球</t>
+  </si>
+  <si>
     <t>下午</t>
   </si>
   <si>
@@ -282,6 +288,9 @@
     <t>17：00-17：30</t>
   </si>
   <si>
+    <t>看了一下自己的相关的东西</t>
+  </si>
+  <si>
     <t>17：30-18：00</t>
   </si>
   <si>
@@ -300,6 +309,9 @@
     <t>看视频</t>
   </si>
   <si>
+    <t>看了会儿电视</t>
+  </si>
+  <si>
     <t>18：30-19：00</t>
   </si>
   <si>
@@ -334,6 +346,9 @@
   </si>
   <si>
     <t>骑车回家</t>
+  </si>
+  <si>
+    <t>回宿舍</t>
   </si>
   <si>
     <t>23：00-23：30</t>
@@ -360,9 +375,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
@@ -383,13 +398,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -403,31 +411,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -443,17 +444,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -465,6 +458,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -472,31 +481,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -510,9 +496,38 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -566,7 +581,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -593,187 +608,193 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FF0070C0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -919,20 +940,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -961,28 +979,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1002,17 +1018,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1021,124 +1042,124 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="35" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1147,26 +1168,26 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1188,47 +1209,62 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1582,7 +1618,7 @@
   <dimension ref="A1:P38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1619,15 +1655,15 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="21" t="s">
+      <c r="J1" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="21"/>
-      <c r="L1" s="21"/>
-      <c r="M1" s="21"/>
-      <c r="N1" s="21"/>
-      <c r="O1" s="21"/>
-      <c r="P1" s="21"/>
+      <c r="K1" s="26"/>
+      <c r="L1" s="26"/>
+      <c r="M1" s="26"/>
+      <c r="N1" s="26"/>
+      <c r="O1" s="26"/>
+      <c r="P1" s="26"/>
     </row>
     <row r="2" ht="18" customHeight="1" spans="1:16">
       <c r="A2" s="1" t="s">
@@ -1642,7 +1678,7 @@
       <c r="D2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F2" s="1" t="s">
@@ -1653,13 +1689,13 @@
       </c>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
-      <c r="J2" s="21"/>
-      <c r="K2" s="21"/>
-      <c r="L2" s="21"/>
-      <c r="M2" s="21"/>
-      <c r="N2" s="21"/>
-      <c r="O2" s="21"/>
-      <c r="P2" s="21"/>
+      <c r="J2" s="26"/>
+      <c r="K2" s="26"/>
+      <c r="L2" s="26"/>
+      <c r="M2" s="26"/>
+      <c r="N2" s="26"/>
+      <c r="O2" s="26"/>
+      <c r="P2" s="26"/>
     </row>
     <row r="3" ht="18" customHeight="1" spans="1:16">
       <c r="A3" s="1"/>
@@ -1672,7 +1708,7 @@
       <c r="D3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F3" s="2" t="s">
@@ -1683,13 +1719,13 @@
       </c>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
-      <c r="J3" s="21"/>
-      <c r="K3" s="21"/>
-      <c r="L3" s="21"/>
-      <c r="M3" s="21"/>
-      <c r="N3" s="21"/>
-      <c r="O3" s="21"/>
-      <c r="P3" s="21"/>
+      <c r="J3" s="26"/>
+      <c r="K3" s="26"/>
+      <c r="L3" s="26"/>
+      <c r="M3" s="26"/>
+      <c r="N3" s="26"/>
+      <c r="O3" s="26"/>
+      <c r="P3" s="26"/>
     </row>
     <row r="4" ht="18" customHeight="1" spans="1:16">
       <c r="A4" s="1"/>
@@ -1702,787 +1738,795 @@
       <c r="D4" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="1"/>
+      <c r="E4" s="16" t="s">
+        <v>17</v>
+      </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
-      <c r="J4" s="21"/>
-      <c r="K4" s="21"/>
-      <c r="L4" s="21"/>
-      <c r="M4" s="21"/>
-      <c r="N4" s="21"/>
-      <c r="O4" s="21"/>
-      <c r="P4" s="21"/>
+      <c r="J4" s="26"/>
+      <c r="K4" s="26"/>
+      <c r="L4" s="26"/>
+      <c r="M4" s="26"/>
+      <c r="N4" s="26"/>
+      <c r="O4" s="26"/>
+      <c r="P4" s="26"/>
     </row>
     <row r="5" ht="18" customHeight="1" spans="1:16">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C5" s="6"/>
-      <c r="D5" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" s="1"/>
+      <c r="D5" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="17"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
-      <c r="J5" s="21"/>
-      <c r="K5" s="21"/>
-      <c r="L5" s="21"/>
-      <c r="M5" s="21"/>
-      <c r="N5" s="21"/>
-      <c r="O5" s="21"/>
-      <c r="P5" s="21"/>
+      <c r="J5" s="26"/>
+      <c r="K5" s="26"/>
+      <c r="L5" s="26"/>
+      <c r="M5" s="26"/>
+      <c r="N5" s="26"/>
+      <c r="O5" s="26"/>
+      <c r="P5" s="26"/>
     </row>
     <row r="6" ht="18" customHeight="1" spans="1:16">
       <c r="A6" s="1"/>
       <c r="B6" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" s="8"/>
-      <c r="E6" s="1"/>
+        <v>21</v>
+      </c>
+      <c r="D6" s="7"/>
+      <c r="E6" s="17"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
-      <c r="J6" s="21"/>
-      <c r="K6" s="21"/>
-      <c r="L6" s="21"/>
-      <c r="M6" s="21"/>
-      <c r="N6" s="21"/>
-      <c r="O6" s="21"/>
-      <c r="P6" s="21"/>
+      <c r="J6" s="26"/>
+      <c r="K6" s="26"/>
+      <c r="L6" s="26"/>
+      <c r="M6" s="26"/>
+      <c r="N6" s="26"/>
+      <c r="O6" s="26"/>
+      <c r="P6" s="26"/>
     </row>
     <row r="7" ht="18" customHeight="1" spans="1:16">
       <c r="A7" s="1"/>
       <c r="B7" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" s="9"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="1"/>
+        <v>22</v>
+      </c>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="17"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
-      <c r="J7" s="21"/>
-      <c r="K7" s="21"/>
-      <c r="L7" s="21"/>
-      <c r="M7" s="21"/>
-      <c r="N7" s="21"/>
-      <c r="O7" s="21"/>
-      <c r="P7" s="21"/>
+      <c r="J7" s="26"/>
+      <c r="K7" s="26"/>
+      <c r="L7" s="26"/>
+      <c r="M7" s="26"/>
+      <c r="N7" s="26"/>
+      <c r="O7" s="26"/>
+      <c r="P7" s="26"/>
     </row>
     <row r="8" ht="18" customHeight="1" spans="1:16">
       <c r="A8" s="1"/>
       <c r="B8" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" s="9"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="1"/>
+        <v>23</v>
+      </c>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="17"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
-      <c r="J8" s="21"/>
-      <c r="K8" s="21"/>
-      <c r="L8" s="21"/>
-      <c r="M8" s="21"/>
-      <c r="N8" s="21"/>
-      <c r="O8" s="21"/>
-      <c r="P8" s="21"/>
+      <c r="J8" s="26"/>
+      <c r="K8" s="26"/>
+      <c r="L8" s="26"/>
+      <c r="M8" s="26"/>
+      <c r="N8" s="26"/>
+      <c r="O8" s="26"/>
+      <c r="P8" s="26"/>
     </row>
     <row r="9" ht="18" customHeight="1" spans="1:16">
       <c r="A9" s="1"/>
       <c r="B9" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" s="9"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="1"/>
+        <v>24</v>
+      </c>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="17"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
-      <c r="J9" s="21"/>
-      <c r="K9" s="21"/>
-      <c r="L9" s="21"/>
-      <c r="M9" s="21"/>
-      <c r="N9" s="21"/>
-      <c r="O9" s="21"/>
-      <c r="P9" s="21"/>
+      <c r="J9" s="26"/>
+      <c r="K9" s="26"/>
+      <c r="L9" s="26"/>
+      <c r="M9" s="26"/>
+      <c r="N9" s="26"/>
+      <c r="O9" s="26"/>
+      <c r="P9" s="26"/>
     </row>
     <row r="10" ht="18" customHeight="1" spans="1:16">
       <c r="A10" s="1"/>
       <c r="B10" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" s="6"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="1"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="18"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
-      <c r="J10" s="21"/>
-      <c r="K10" s="21"/>
-      <c r="L10" s="21"/>
-      <c r="M10" s="21"/>
-      <c r="N10" s="21"/>
-      <c r="O10" s="21"/>
-      <c r="P10" s="21"/>
+      <c r="J10" s="26"/>
+      <c r="K10" s="26"/>
+      <c r="L10" s="26"/>
+      <c r="M10" s="26"/>
+      <c r="N10" s="26"/>
+      <c r="O10" s="26"/>
+      <c r="P10" s="26"/>
     </row>
     <row r="11" ht="18" customHeight="1" spans="1:16">
       <c r="A11" s="1"/>
       <c r="B11" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
-      <c r="J11" s="21"/>
-      <c r="K11" s="21"/>
-      <c r="L11" s="21"/>
-      <c r="M11" s="21"/>
-      <c r="N11" s="21"/>
-      <c r="O11" s="21"/>
-      <c r="P11" s="21"/>
+      <c r="J11" s="26"/>
+      <c r="K11" s="26"/>
+      <c r="L11" s="26"/>
+      <c r="M11" s="26"/>
+      <c r="N11" s="26"/>
+      <c r="O11" s="26"/>
+      <c r="P11" s="26"/>
     </row>
     <row r="12" ht="18" customHeight="1" spans="1:16">
       <c r="A12" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C12" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="D12" s="12" t="s">
+      <c r="C12" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="E12" s="1"/>
+      <c r="D12" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="E12" s="19" t="s">
+        <v>30</v>
+      </c>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
-      <c r="J12" s="21"/>
-      <c r="K12" s="21"/>
-      <c r="L12" s="21"/>
-      <c r="M12" s="21"/>
-      <c r="N12" s="21"/>
-      <c r="O12" s="21"/>
-      <c r="P12" s="21"/>
+      <c r="J12" s="26"/>
+      <c r="K12" s="26"/>
+      <c r="L12" s="26"/>
+      <c r="M12" s="26"/>
+      <c r="N12" s="26"/>
+      <c r="O12" s="26"/>
+      <c r="P12" s="26"/>
     </row>
     <row r="13" ht="18" customHeight="1" spans="1:16">
       <c r="A13" s="1"/>
       <c r="B13" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C13" s="13"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="1"/>
+        <v>32</v>
+      </c>
+      <c r="C13" s="10"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="20"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
-      <c r="J13" s="21"/>
-      <c r="K13" s="21"/>
-      <c r="L13" s="21"/>
-      <c r="M13" s="21"/>
-      <c r="N13" s="21"/>
-      <c r="O13" s="21"/>
-      <c r="P13" s="21"/>
+      <c r="J13" s="26"/>
+      <c r="K13" s="26"/>
+      <c r="L13" s="26"/>
+      <c r="M13" s="26"/>
+      <c r="N13" s="26"/>
+      <c r="O13" s="26"/>
+      <c r="P13" s="26"/>
     </row>
     <row r="14" ht="18" customHeight="1" spans="1:16">
       <c r="A14" s="1"/>
       <c r="B14" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C14" s="15"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="1" t="s">
-        <v>29</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="C14" s="12"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="21"/>
       <c r="F14" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
-      <c r="J14" s="21"/>
-      <c r="K14" s="21"/>
-      <c r="L14" s="21"/>
-      <c r="M14" s="21"/>
-      <c r="N14" s="21"/>
-      <c r="O14" s="21"/>
-      <c r="P14" s="21"/>
+      <c r="J14" s="26"/>
+      <c r="K14" s="26"/>
+      <c r="L14" s="26"/>
+      <c r="M14" s="26"/>
+      <c r="N14" s="26"/>
+      <c r="O14" s="26"/>
+      <c r="P14" s="26"/>
     </row>
     <row r="15" ht="18" customHeight="1" spans="1:16">
       <c r="A15" s="1"/>
       <c r="B15" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="D15" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="E15" s="1"/>
+        <v>35</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="E15" s="22" t="s">
+        <v>36</v>
+      </c>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
-      <c r="J15" s="21"/>
-      <c r="K15" s="21"/>
-      <c r="L15" s="21"/>
-      <c r="M15" s="21"/>
-      <c r="N15" s="21"/>
-      <c r="O15" s="21"/>
-      <c r="P15" s="21"/>
+      <c r="J15" s="26"/>
+      <c r="K15" s="26"/>
+      <c r="L15" s="26"/>
+      <c r="M15" s="26"/>
+      <c r="N15" s="26"/>
+      <c r="O15" s="26"/>
+      <c r="P15" s="26"/>
     </row>
     <row r="16" ht="18" customHeight="1" spans="1:16">
       <c r="A16" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C16" s="9"/>
-      <c r="D16" s="18"/>
-      <c r="E16" s="1"/>
+        <v>38</v>
+      </c>
+      <c r="C16" s="7"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="23"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
-      <c r="J16" s="21"/>
-      <c r="K16" s="21"/>
-      <c r="L16" s="21"/>
-      <c r="M16" s="21"/>
-      <c r="N16" s="21"/>
-      <c r="O16" s="21"/>
-      <c r="P16" s="21"/>
+      <c r="J16" s="26"/>
+      <c r="K16" s="26"/>
+      <c r="L16" s="26"/>
+      <c r="M16" s="26"/>
+      <c r="N16" s="26"/>
+      <c r="O16" s="26"/>
+      <c r="P16" s="26"/>
     </row>
     <row r="17" ht="18" customHeight="1" spans="1:16">
       <c r="A17" s="1"/>
       <c r="B17" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C17" s="9"/>
-      <c r="D17" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="E17" s="1"/>
+        <v>39</v>
+      </c>
+      <c r="C17" s="7"/>
+      <c r="D17" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="E17" s="23"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
-      <c r="J17" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="K17" s="23"/>
-      <c r="L17" s="23"/>
-      <c r="M17" s="23"/>
-      <c r="N17" s="23"/>
-      <c r="O17" s="23"/>
-      <c r="P17" s="28"/>
+      <c r="J17" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="K17" s="28"/>
+      <c r="L17" s="28"/>
+      <c r="M17" s="28"/>
+      <c r="N17" s="28"/>
+      <c r="O17" s="28"/>
+      <c r="P17" s="33"/>
     </row>
     <row r="18" ht="18" customHeight="1" spans="1:16">
       <c r="A18" s="1"/>
       <c r="B18" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C18" s="6"/>
-      <c r="D18" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="E18" s="1"/>
+      <c r="D18" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E18" s="23"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
-      <c r="J18" s="24"/>
-      <c r="K18" s="25"/>
-      <c r="L18" s="25"/>
-      <c r="M18" s="25"/>
-      <c r="N18" s="25"/>
-      <c r="O18" s="25"/>
-      <c r="P18" s="29"/>
+      <c r="J18" s="29"/>
+      <c r="K18" s="30"/>
+      <c r="L18" s="30"/>
+      <c r="M18" s="30"/>
+      <c r="N18" s="30"/>
+      <c r="O18" s="30"/>
+      <c r="P18" s="34"/>
     </row>
     <row r="19" ht="18" customHeight="1" spans="1:16">
       <c r="A19" s="1"/>
       <c r="B19" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="D19" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="E19" s="1"/>
+        <v>45</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="E19" s="23"/>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
-      <c r="J19" s="24"/>
-      <c r="K19" s="25"/>
-      <c r="L19" s="25"/>
-      <c r="M19" s="25"/>
-      <c r="N19" s="25"/>
-      <c r="O19" s="25"/>
-      <c r="P19" s="29"/>
+      <c r="J19" s="29"/>
+      <c r="K19" s="30"/>
+      <c r="L19" s="30"/>
+      <c r="M19" s="30"/>
+      <c r="N19" s="30"/>
+      <c r="O19" s="30"/>
+      <c r="P19" s="34"/>
     </row>
     <row r="20" ht="18" customHeight="1" spans="1:16">
       <c r="A20" s="1"/>
       <c r="B20" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C20" s="9"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="1"/>
+        <v>47</v>
+      </c>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="24"/>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
-      <c r="J20" s="24"/>
-      <c r="K20" s="25"/>
-      <c r="L20" s="25"/>
-      <c r="M20" s="25"/>
-      <c r="N20" s="25"/>
-      <c r="O20" s="25"/>
-      <c r="P20" s="29"/>
+      <c r="J20" s="29"/>
+      <c r="K20" s="30"/>
+      <c r="L20" s="30"/>
+      <c r="M20" s="30"/>
+      <c r="N20" s="30"/>
+      <c r="O20" s="30"/>
+      <c r="P20" s="34"/>
     </row>
     <row r="21" ht="18" customHeight="1" spans="1:16">
       <c r="A21" s="1"/>
       <c r="B21" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C21" s="6"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="1"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="25" t="s">
+        <v>49</v>
+      </c>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
-      <c r="J21" s="24"/>
-      <c r="K21" s="25"/>
-      <c r="L21" s="25"/>
-      <c r="M21" s="25"/>
-      <c r="N21" s="25"/>
-      <c r="O21" s="25"/>
-      <c r="P21" s="29"/>
+      <c r="J21" s="29"/>
+      <c r="K21" s="30"/>
+      <c r="L21" s="30"/>
+      <c r="M21" s="30"/>
+      <c r="N21" s="30"/>
+      <c r="O21" s="30"/>
+      <c r="P21" s="34"/>
     </row>
     <row r="22" ht="18" customHeight="1" spans="1:16">
       <c r="A22" s="1"/>
       <c r="B22" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>51</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
-      <c r="J22" s="24"/>
-      <c r="K22" s="25"/>
-      <c r="L22" s="25"/>
-      <c r="M22" s="25"/>
-      <c r="N22" s="25"/>
-      <c r="O22" s="25"/>
-      <c r="P22" s="29"/>
+      <c r="J22" s="29"/>
+      <c r="K22" s="30"/>
+      <c r="L22" s="30"/>
+      <c r="M22" s="30"/>
+      <c r="N22" s="30"/>
+      <c r="O22" s="30"/>
+      <c r="P22" s="34"/>
     </row>
     <row r="23" ht="18" customHeight="1" spans="1:16">
       <c r="A23" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="D23" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="E23" s="1"/>
+        <v>54</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="E23" s="19" t="s">
+        <v>56</v>
+      </c>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
-      <c r="J23" s="24"/>
-      <c r="K23" s="25"/>
-      <c r="L23" s="25"/>
-      <c r="M23" s="25"/>
-      <c r="N23" s="25"/>
-      <c r="O23" s="25"/>
-      <c r="P23" s="29"/>
+      <c r="J23" s="29"/>
+      <c r="K23" s="30"/>
+      <c r="L23" s="30"/>
+      <c r="M23" s="30"/>
+      <c r="N23" s="30"/>
+      <c r="O23" s="30"/>
+      <c r="P23" s="34"/>
     </row>
     <row r="24" ht="18" customHeight="1" spans="1:16">
       <c r="A24" s="1"/>
       <c r="B24" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C24" s="9"/>
-      <c r="D24" s="18"/>
-      <c r="E24" s="1"/>
+        <v>57</v>
+      </c>
+      <c r="C24" s="7"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="20"/>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
-      <c r="J24" s="24"/>
-      <c r="K24" s="25"/>
-      <c r="L24" s="25"/>
-      <c r="M24" s="25"/>
-      <c r="N24" s="25"/>
-      <c r="O24" s="25"/>
-      <c r="P24" s="29"/>
+      <c r="J24" s="29"/>
+      <c r="K24" s="30"/>
+      <c r="L24" s="30"/>
+      <c r="M24" s="30"/>
+      <c r="N24" s="30"/>
+      <c r="O24" s="30"/>
+      <c r="P24" s="34"/>
     </row>
     <row r="25" ht="18" customHeight="1" spans="1:16">
       <c r="A25" s="1"/>
       <c r="B25" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C25" s="9"/>
-      <c r="D25" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="E25" s="1"/>
+        <v>58</v>
+      </c>
+      <c r="C25" s="7"/>
+      <c r="D25" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E25" s="20"/>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
-      <c r="J25" s="24"/>
-      <c r="K25" s="25"/>
-      <c r="L25" s="25"/>
-      <c r="M25" s="25"/>
-      <c r="N25" s="25"/>
-      <c r="O25" s="25"/>
-      <c r="P25" s="29"/>
+      <c r="J25" s="29"/>
+      <c r="K25" s="30"/>
+      <c r="L25" s="30"/>
+      <c r="M25" s="30"/>
+      <c r="N25" s="30"/>
+      <c r="O25" s="30"/>
+      <c r="P25" s="34"/>
     </row>
     <row r="26" ht="18" customHeight="1" spans="1:16">
       <c r="A26" s="1"/>
       <c r="B26" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C26" s="9"/>
-      <c r="D26" s="8"/>
-      <c r="E26" s="1"/>
+        <v>60</v>
+      </c>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="21"/>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
-      <c r="J26" s="24"/>
-      <c r="K26" s="25"/>
-      <c r="L26" s="25"/>
-      <c r="M26" s="25"/>
-      <c r="N26" s="25"/>
-      <c r="O26" s="25"/>
-      <c r="P26" s="29"/>
+      <c r="J26" s="29"/>
+      <c r="K26" s="30"/>
+      <c r="L26" s="30"/>
+      <c r="M26" s="30"/>
+      <c r="N26" s="30"/>
+      <c r="O26" s="30"/>
+      <c r="P26" s="34"/>
     </row>
     <row r="27" ht="18" customHeight="1" spans="1:16">
       <c r="A27" s="1"/>
       <c r="B27" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C27" s="9"/>
-      <c r="D27" s="8"/>
+        <v>61</v>
+      </c>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
-      <c r="J27" s="24"/>
-      <c r="K27" s="25"/>
-      <c r="L27" s="25"/>
-      <c r="M27" s="25"/>
-      <c r="N27" s="25"/>
-      <c r="O27" s="25"/>
-      <c r="P27" s="29"/>
+      <c r="J27" s="29"/>
+      <c r="K27" s="30"/>
+      <c r="L27" s="30"/>
+      <c r="M27" s="30"/>
+      <c r="N27" s="30"/>
+      <c r="O27" s="30"/>
+      <c r="P27" s="34"/>
     </row>
     <row r="28" ht="18" customHeight="1" spans="1:16">
       <c r="A28" s="1"/>
       <c r="B28" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C28" s="9"/>
-      <c r="D28" s="8"/>
+        <v>62</v>
+      </c>
+      <c r="C28" s="7"/>
+      <c r="D28" s="7"/>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
-      <c r="J28" s="24"/>
-      <c r="K28" s="25"/>
-      <c r="L28" s="25"/>
-      <c r="M28" s="25"/>
-      <c r="N28" s="25"/>
-      <c r="O28" s="25"/>
-      <c r="P28" s="29"/>
+      <c r="J28" s="29"/>
+      <c r="K28" s="30"/>
+      <c r="L28" s="30"/>
+      <c r="M28" s="30"/>
+      <c r="N28" s="30"/>
+      <c r="O28" s="30"/>
+      <c r="P28" s="34"/>
     </row>
     <row r="29" ht="18" customHeight="1" spans="1:16">
       <c r="A29" s="1"/>
       <c r="B29" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="C29" s="6"/>
-      <c r="D29" s="8"/>
+      <c r="D29" s="7"/>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
-      <c r="J29" s="24"/>
-      <c r="K29" s="25"/>
-      <c r="L29" s="25"/>
-      <c r="M29" s="25"/>
-      <c r="N29" s="25"/>
-      <c r="O29" s="25"/>
-      <c r="P29" s="29"/>
+      <c r="J29" s="29"/>
+      <c r="K29" s="30"/>
+      <c r="L29" s="30"/>
+      <c r="M29" s="30"/>
+      <c r="N29" s="30"/>
+      <c r="O29" s="30"/>
+      <c r="P29" s="34"/>
     </row>
     <row r="30" ht="18" customHeight="1" spans="1:16">
       <c r="A30" s="1"/>
       <c r="B30" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="D30" s="8"/>
+        <v>65</v>
+      </c>
+      <c r="D30" s="7"/>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
-      <c r="J30" s="24"/>
-      <c r="K30" s="25"/>
-      <c r="L30" s="25"/>
-      <c r="M30" s="25"/>
-      <c r="N30" s="25"/>
-      <c r="O30" s="25"/>
-      <c r="P30" s="29"/>
+      <c r="J30" s="29"/>
+      <c r="K30" s="30"/>
+      <c r="L30" s="30"/>
+      <c r="M30" s="30"/>
+      <c r="N30" s="30"/>
+      <c r="O30" s="30"/>
+      <c r="P30" s="34"/>
     </row>
     <row r="31" ht="18" customHeight="1" spans="1:16">
       <c r="A31" s="1"/>
       <c r="B31" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C31" s="6"/>
-      <c r="D31" s="10"/>
+      <c r="D31" s="6"/>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
-      <c r="J31" s="24"/>
-      <c r="K31" s="25"/>
-      <c r="L31" s="25"/>
-      <c r="M31" s="25"/>
-      <c r="N31" s="25"/>
-      <c r="O31" s="25"/>
-      <c r="P31" s="29"/>
+      <c r="J31" s="29"/>
+      <c r="K31" s="30"/>
+      <c r="L31" s="30"/>
+      <c r="M31" s="30"/>
+      <c r="N31" s="30"/>
+      <c r="O31" s="30"/>
+      <c r="P31" s="34"/>
     </row>
     <row r="32" ht="18" customHeight="1" spans="1:16">
       <c r="A32" s="1"/>
       <c r="B32" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>69</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
-      <c r="J32" s="24"/>
-      <c r="K32" s="25"/>
-      <c r="L32" s="25"/>
-      <c r="M32" s="25"/>
-      <c r="N32" s="25"/>
-      <c r="O32" s="25"/>
-      <c r="P32" s="29"/>
+      <c r="J32" s="29"/>
+      <c r="K32" s="30"/>
+      <c r="L32" s="30"/>
+      <c r="M32" s="30"/>
+      <c r="N32" s="30"/>
+      <c r="O32" s="30"/>
+      <c r="P32" s="34"/>
     </row>
     <row r="33" ht="18" customHeight="1" spans="1:16">
       <c r="A33" s="1"/>
       <c r="B33" s="1" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>66</v>
+        <v>71</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>71</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
-      <c r="J33" s="24"/>
-      <c r="K33" s="25"/>
-      <c r="L33" s="25"/>
-      <c r="M33" s="25"/>
-      <c r="N33" s="25"/>
-      <c r="O33" s="25"/>
-      <c r="P33" s="29"/>
+      <c r="J33" s="29"/>
+      <c r="K33" s="30"/>
+      <c r="L33" s="30"/>
+      <c r="M33" s="30"/>
+      <c r="N33" s="30"/>
+      <c r="O33" s="30"/>
+      <c r="P33" s="34"/>
     </row>
     <row r="34" ht="18" customHeight="1" spans="1:16">
       <c r="A34" s="1"/>
       <c r="B34" s="1" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>68</v>
+        <v>73</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>73</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
-      <c r="J34" s="24"/>
-      <c r="K34" s="25"/>
-      <c r="L34" s="25"/>
-      <c r="M34" s="25"/>
-      <c r="N34" s="25"/>
-      <c r="O34" s="25"/>
-      <c r="P34" s="29"/>
+      <c r="J34" s="29"/>
+      <c r="K34" s="30"/>
+      <c r="L34" s="30"/>
+      <c r="M34" s="30"/>
+      <c r="N34" s="30"/>
+      <c r="O34" s="30"/>
+      <c r="P34" s="34"/>
     </row>
     <row r="35" spans="1:16">
-      <c r="A35" s="20" t="s">
-        <v>69</v>
-      </c>
-      <c r="B35" s="20"/>
-      <c r="C35" s="20"/>
-      <c r="D35" s="20"/>
-      <c r="E35" s="20"/>
-      <c r="F35" s="20"/>
-      <c r="G35" s="20"/>
-      <c r="H35" s="20"/>
-      <c r="I35" s="20"/>
-      <c r="J35" s="24"/>
-      <c r="K35" s="25"/>
-      <c r="L35" s="25"/>
-      <c r="M35" s="25"/>
-      <c r="N35" s="25"/>
-      <c r="O35" s="25"/>
-      <c r="P35" s="29"/>
+      <c r="A35" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="B35" s="15"/>
+      <c r="C35" s="15"/>
+      <c r="D35" s="15"/>
+      <c r="E35" s="15"/>
+      <c r="F35" s="15"/>
+      <c r="G35" s="15"/>
+      <c r="H35" s="15"/>
+      <c r="I35" s="15"/>
+      <c r="J35" s="29"/>
+      <c r="K35" s="30"/>
+      <c r="L35" s="30"/>
+      <c r="M35" s="30"/>
+      <c r="N35" s="30"/>
+      <c r="O35" s="30"/>
+      <c r="P35" s="34"/>
     </row>
     <row r="36" spans="1:16">
-      <c r="A36" s="20"/>
-      <c r="B36" s="20"/>
-      <c r="C36" s="20"/>
-      <c r="D36" s="20"/>
-      <c r="E36" s="20"/>
-      <c r="F36" s="20"/>
-      <c r="G36" s="20"/>
-      <c r="H36" s="20"/>
-      <c r="I36" s="20"/>
-      <c r="J36" s="24"/>
-      <c r="K36" s="25"/>
-      <c r="L36" s="25"/>
-      <c r="M36" s="25"/>
-      <c r="N36" s="25"/>
-      <c r="O36" s="25"/>
-      <c r="P36" s="29"/>
+      <c r="A36" s="15"/>
+      <c r="B36" s="15"/>
+      <c r="C36" s="15"/>
+      <c r="D36" s="15"/>
+      <c r="E36" s="15"/>
+      <c r="F36" s="15"/>
+      <c r="G36" s="15"/>
+      <c r="H36" s="15"/>
+      <c r="I36" s="15"/>
+      <c r="J36" s="29"/>
+      <c r="K36" s="30"/>
+      <c r="L36" s="30"/>
+      <c r="M36" s="30"/>
+      <c r="N36" s="30"/>
+      <c r="O36" s="30"/>
+      <c r="P36" s="34"/>
     </row>
     <row r="37" spans="1:16">
-      <c r="A37" s="20"/>
-      <c r="B37" s="20"/>
-      <c r="C37" s="20"/>
-      <c r="D37" s="20"/>
-      <c r="E37" s="20"/>
-      <c r="F37" s="20"/>
-      <c r="G37" s="20"/>
-      <c r="H37" s="20"/>
-      <c r="I37" s="20"/>
-      <c r="J37" s="24"/>
-      <c r="K37" s="25"/>
-      <c r="L37" s="25"/>
-      <c r="M37" s="25"/>
-      <c r="N37" s="25"/>
-      <c r="O37" s="25"/>
-      <c r="P37" s="29"/>
+      <c r="A37" s="15"/>
+      <c r="B37" s="15"/>
+      <c r="C37" s="15"/>
+      <c r="D37" s="15"/>
+      <c r="E37" s="15"/>
+      <c r="F37" s="15"/>
+      <c r="G37" s="15"/>
+      <c r="H37" s="15"/>
+      <c r="I37" s="15"/>
+      <c r="J37" s="29"/>
+      <c r="K37" s="30"/>
+      <c r="L37" s="30"/>
+      <c r="M37" s="30"/>
+      <c r="N37" s="30"/>
+      <c r="O37" s="30"/>
+      <c r="P37" s="34"/>
     </row>
     <row r="38" spans="1:16">
-      <c r="A38" s="20"/>
-      <c r="B38" s="20"/>
-      <c r="C38" s="20"/>
-      <c r="D38" s="20"/>
-      <c r="E38" s="20"/>
-      <c r="F38" s="20"/>
-      <c r="G38" s="20"/>
-      <c r="H38" s="20"/>
-      <c r="I38" s="20"/>
-      <c r="J38" s="26"/>
-      <c r="K38" s="27"/>
-      <c r="L38" s="27"/>
-      <c r="M38" s="27"/>
-      <c r="N38" s="27"/>
-      <c r="O38" s="27"/>
-      <c r="P38" s="30"/>
+      <c r="A38" s="15"/>
+      <c r="B38" s="15"/>
+      <c r="C38" s="15"/>
+      <c r="D38" s="15"/>
+      <c r="E38" s="15"/>
+      <c r="F38" s="15"/>
+      <c r="G38" s="15"/>
+      <c r="H38" s="15"/>
+      <c r="I38" s="15"/>
+      <c r="J38" s="31"/>
+      <c r="K38" s="32"/>
+      <c r="L38" s="32"/>
+      <c r="M38" s="32"/>
+      <c r="N38" s="32"/>
+      <c r="O38" s="32"/>
+      <c r="P38" s="35"/>
     </row>
   </sheetData>
-  <mergeCells count="20">
+  <mergeCells count="24">
     <mergeCell ref="A2:A11"/>
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A16:A22"/>
@@ -2500,6 +2544,10 @@
     <mergeCell ref="D19:D21"/>
     <mergeCell ref="D23:D24"/>
     <mergeCell ref="D25:D31"/>
+    <mergeCell ref="E4:E10"/>
+    <mergeCell ref="E12:E14"/>
+    <mergeCell ref="E15:E20"/>
+    <mergeCell ref="E23:E26"/>
     <mergeCell ref="A35:I38"/>
     <mergeCell ref="J1:P16"/>
     <mergeCell ref="J17:P38"/>

--- a/2018.10.29-2018.11.4.xlsx
+++ b/2018.10.29-2018.11.4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="76">
   <si>
     <t>时间段</t>
   </si>
@@ -327,6 +327,9 @@
     <t>20：00-20：30</t>
   </si>
   <si>
+    <t>学习面向对象的一些知识</t>
+  </si>
+  <si>
     <t>20：30-21：00</t>
   </si>
   <si>
@@ -376,9 +379,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -397,6 +400,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -405,22 +424,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -435,34 +439,10 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -482,7 +462,37 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -496,6 +506,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -503,41 +528,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="18"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -620,13 +623,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -638,7 +773,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -650,151 +791,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -940,41 +943,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -990,15 +963,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1020,6 +984,32 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
@@ -1029,11 +1019,24 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1042,152 +1045,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="35" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="20" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1236,6 +1239,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1243,27 +1258,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1618,7 +1612,7 @@
   <dimension ref="A1:P38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1655,15 +1649,15 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="26" t="s">
+      <c r="J1" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="26"/>
-      <c r="L1" s="26"/>
-      <c r="M1" s="26"/>
-      <c r="N1" s="26"/>
-      <c r="O1" s="26"/>
-      <c r="P1" s="26"/>
+      <c r="K1" s="23"/>
+      <c r="L1" s="23"/>
+      <c r="M1" s="23"/>
+      <c r="N1" s="23"/>
+      <c r="O1" s="23"/>
+      <c r="P1" s="23"/>
     </row>
     <row r="2" ht="18" customHeight="1" spans="1:16">
       <c r="A2" s="1" t="s">
@@ -1689,13 +1683,13 @@
       </c>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
-      <c r="J2" s="26"/>
-      <c r="K2" s="26"/>
-      <c r="L2" s="26"/>
-      <c r="M2" s="26"/>
-      <c r="N2" s="26"/>
-      <c r="O2" s="26"/>
-      <c r="P2" s="26"/>
+      <c r="J2" s="23"/>
+      <c r="K2" s="23"/>
+      <c r="L2" s="23"/>
+      <c r="M2" s="23"/>
+      <c r="N2" s="23"/>
+      <c r="O2" s="23"/>
+      <c r="P2" s="23"/>
     </row>
     <row r="3" ht="18" customHeight="1" spans="1:16">
       <c r="A3" s="1"/>
@@ -1719,13 +1713,13 @@
       </c>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
-      <c r="J3" s="26"/>
-      <c r="K3" s="26"/>
-      <c r="L3" s="26"/>
-      <c r="M3" s="26"/>
-      <c r="N3" s="26"/>
-      <c r="O3" s="26"/>
-      <c r="P3" s="26"/>
+      <c r="J3" s="23"/>
+      <c r="K3" s="23"/>
+      <c r="L3" s="23"/>
+      <c r="M3" s="23"/>
+      <c r="N3" s="23"/>
+      <c r="O3" s="23"/>
+      <c r="P3" s="23"/>
     </row>
     <row r="4" ht="18" customHeight="1" spans="1:16">
       <c r="A4" s="1"/>
@@ -1738,20 +1732,20 @@
       <c r="D4" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="16" t="s">
+      <c r="E4" s="5" t="s">
         <v>17</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
-      <c r="J4" s="26"/>
-      <c r="K4" s="26"/>
-      <c r="L4" s="26"/>
-      <c r="M4" s="26"/>
-      <c r="N4" s="26"/>
-      <c r="O4" s="26"/>
-      <c r="P4" s="26"/>
+      <c r="J4" s="23"/>
+      <c r="K4" s="23"/>
+      <c r="L4" s="23"/>
+      <c r="M4" s="23"/>
+      <c r="N4" s="23"/>
+      <c r="O4" s="23"/>
+      <c r="P4" s="23"/>
     </row>
     <row r="5" ht="18" customHeight="1" spans="1:16">
       <c r="A5" s="1"/>
@@ -1762,18 +1756,18 @@
       <c r="D5" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="17"/>
+      <c r="E5" s="7"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
-      <c r="J5" s="26"/>
-      <c r="K5" s="26"/>
-      <c r="L5" s="26"/>
-      <c r="M5" s="26"/>
-      <c r="N5" s="26"/>
-      <c r="O5" s="26"/>
-      <c r="P5" s="26"/>
+      <c r="J5" s="23"/>
+      <c r="K5" s="23"/>
+      <c r="L5" s="23"/>
+      <c r="M5" s="23"/>
+      <c r="N5" s="23"/>
+      <c r="O5" s="23"/>
+      <c r="P5" s="23"/>
     </row>
     <row r="6" ht="18" customHeight="1" spans="1:16">
       <c r="A6" s="1"/>
@@ -1784,18 +1778,18 @@
         <v>21</v>
       </c>
       <c r="D6" s="7"/>
-      <c r="E6" s="17"/>
+      <c r="E6" s="7"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
-      <c r="J6" s="26"/>
-      <c r="K6" s="26"/>
-      <c r="L6" s="26"/>
-      <c r="M6" s="26"/>
-      <c r="N6" s="26"/>
-      <c r="O6" s="26"/>
-      <c r="P6" s="26"/>
+      <c r="J6" s="23"/>
+      <c r="K6" s="23"/>
+      <c r="L6" s="23"/>
+      <c r="M6" s="23"/>
+      <c r="N6" s="23"/>
+      <c r="O6" s="23"/>
+      <c r="P6" s="23"/>
     </row>
     <row r="7" ht="18" customHeight="1" spans="1:16">
       <c r="A7" s="1"/>
@@ -1804,18 +1798,18 @@
       </c>
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
-      <c r="E7" s="17"/>
+      <c r="E7" s="7"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
-      <c r="J7" s="26"/>
-      <c r="K7" s="26"/>
-      <c r="L7" s="26"/>
-      <c r="M7" s="26"/>
-      <c r="N7" s="26"/>
-      <c r="O7" s="26"/>
-      <c r="P7" s="26"/>
+      <c r="J7" s="23"/>
+      <c r="K7" s="23"/>
+      <c r="L7" s="23"/>
+      <c r="M7" s="23"/>
+      <c r="N7" s="23"/>
+      <c r="O7" s="23"/>
+      <c r="P7" s="23"/>
     </row>
     <row r="8" ht="18" customHeight="1" spans="1:16">
       <c r="A8" s="1"/>
@@ -1824,18 +1818,18 @@
       </c>
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
-      <c r="E8" s="17"/>
+      <c r="E8" s="7"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
-      <c r="J8" s="26"/>
-      <c r="K8" s="26"/>
-      <c r="L8" s="26"/>
-      <c r="M8" s="26"/>
-      <c r="N8" s="26"/>
-      <c r="O8" s="26"/>
-      <c r="P8" s="26"/>
+      <c r="J8" s="23"/>
+      <c r="K8" s="23"/>
+      <c r="L8" s="23"/>
+      <c r="M8" s="23"/>
+      <c r="N8" s="23"/>
+      <c r="O8" s="23"/>
+      <c r="P8" s="23"/>
     </row>
     <row r="9" ht="18" customHeight="1" spans="1:16">
       <c r="A9" s="1"/>
@@ -1844,18 +1838,18 @@
       </c>
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
-      <c r="E9" s="17"/>
+      <c r="E9" s="7"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
-      <c r="J9" s="26"/>
-      <c r="K9" s="26"/>
-      <c r="L9" s="26"/>
-      <c r="M9" s="26"/>
-      <c r="N9" s="26"/>
-      <c r="O9" s="26"/>
-      <c r="P9" s="26"/>
+      <c r="J9" s="23"/>
+      <c r="K9" s="23"/>
+      <c r="L9" s="23"/>
+      <c r="M9" s="23"/>
+      <c r="N9" s="23"/>
+      <c r="O9" s="23"/>
+      <c r="P9" s="23"/>
     </row>
     <row r="10" ht="18" customHeight="1" spans="1:16">
       <c r="A10" s="1"/>
@@ -1864,18 +1858,18 @@
       </c>
       <c r="C10" s="6"/>
       <c r="D10" s="6"/>
-      <c r="E10" s="18"/>
+      <c r="E10" s="6"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
-      <c r="J10" s="26"/>
-      <c r="K10" s="26"/>
-      <c r="L10" s="26"/>
-      <c r="M10" s="26"/>
-      <c r="N10" s="26"/>
-      <c r="O10" s="26"/>
-      <c r="P10" s="26"/>
+      <c r="J10" s="23"/>
+      <c r="K10" s="23"/>
+      <c r="L10" s="23"/>
+      <c r="M10" s="23"/>
+      <c r="N10" s="23"/>
+      <c r="O10" s="23"/>
+      <c r="P10" s="23"/>
     </row>
     <row r="11" ht="18" customHeight="1" spans="1:16">
       <c r="A11" s="1"/>
@@ -1899,13 +1893,13 @@
       </c>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
-      <c r="J11" s="26"/>
-      <c r="K11" s="26"/>
-      <c r="L11" s="26"/>
-      <c r="M11" s="26"/>
-      <c r="N11" s="26"/>
-      <c r="O11" s="26"/>
-      <c r="P11" s="26"/>
+      <c r="J11" s="23"/>
+      <c r="K11" s="23"/>
+      <c r="L11" s="23"/>
+      <c r="M11" s="23"/>
+      <c r="N11" s="23"/>
+      <c r="O11" s="23"/>
+      <c r="P11" s="23"/>
     </row>
     <row r="12" ht="18" customHeight="1" spans="1:16">
       <c r="A12" s="1" t="s">
@@ -1920,20 +1914,20 @@
       <c r="D12" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="E12" s="19" t="s">
+      <c r="E12" s="8" t="s">
         <v>30</v>
       </c>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
-      <c r="J12" s="26"/>
-      <c r="K12" s="26"/>
-      <c r="L12" s="26"/>
-      <c r="M12" s="26"/>
-      <c r="N12" s="26"/>
-      <c r="O12" s="26"/>
-      <c r="P12" s="26"/>
+      <c r="J12" s="23"/>
+      <c r="K12" s="23"/>
+      <c r="L12" s="23"/>
+      <c r="M12" s="23"/>
+      <c r="N12" s="23"/>
+      <c r="O12" s="23"/>
+      <c r="P12" s="23"/>
     </row>
     <row r="13" ht="18" customHeight="1" spans="1:16">
       <c r="A13" s="1"/>
@@ -1942,18 +1936,18 @@
       </c>
       <c r="C13" s="10"/>
       <c r="D13" s="11"/>
-      <c r="E13" s="20"/>
+      <c r="E13" s="10"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
-      <c r="J13" s="26"/>
-      <c r="K13" s="26"/>
-      <c r="L13" s="26"/>
-      <c r="M13" s="26"/>
-      <c r="N13" s="26"/>
-      <c r="O13" s="26"/>
-      <c r="P13" s="26"/>
+      <c r="J13" s="23"/>
+      <c r="K13" s="23"/>
+      <c r="L13" s="23"/>
+      <c r="M13" s="23"/>
+      <c r="N13" s="23"/>
+      <c r="O13" s="23"/>
+      <c r="P13" s="23"/>
     </row>
     <row r="14" ht="18" customHeight="1" spans="1:16">
       <c r="A14" s="1"/>
@@ -1962,7 +1956,7 @@
       </c>
       <c r="C14" s="12"/>
       <c r="D14" s="13"/>
-      <c r="E14" s="21"/>
+      <c r="E14" s="12"/>
       <c r="F14" s="1" t="s">
         <v>30</v>
       </c>
@@ -1971,13 +1965,13 @@
       </c>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
-      <c r="J14" s="26"/>
-      <c r="K14" s="26"/>
-      <c r="L14" s="26"/>
-      <c r="M14" s="26"/>
-      <c r="N14" s="26"/>
-      <c r="O14" s="26"/>
-      <c r="P14" s="26"/>
+      <c r="J14" s="23"/>
+      <c r="K14" s="23"/>
+      <c r="L14" s="23"/>
+      <c r="M14" s="23"/>
+      <c r="N14" s="23"/>
+      <c r="O14" s="23"/>
+      <c r="P14" s="23"/>
     </row>
     <row r="15" ht="18" customHeight="1" spans="1:16">
       <c r="A15" s="1"/>
@@ -1990,20 +1984,20 @@
       <c r="D15" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="E15" s="22" t="s">
+      <c r="E15" s="16" t="s">
         <v>36</v>
       </c>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
-      <c r="J15" s="26"/>
-      <c r="K15" s="26"/>
-      <c r="L15" s="26"/>
-      <c r="M15" s="26"/>
-      <c r="N15" s="26"/>
-      <c r="O15" s="26"/>
-      <c r="P15" s="26"/>
+      <c r="J15" s="23"/>
+      <c r="K15" s="23"/>
+      <c r="L15" s="23"/>
+      <c r="M15" s="23"/>
+      <c r="N15" s="23"/>
+      <c r="O15" s="23"/>
+      <c r="P15" s="23"/>
     </row>
     <row r="16" ht="18" customHeight="1" spans="1:16">
       <c r="A16" s="1" t="s">
@@ -2014,18 +2008,18 @@
       </c>
       <c r="C16" s="7"/>
       <c r="D16" s="12"/>
-      <c r="E16" s="23"/>
+      <c r="E16" s="17"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
-      <c r="J16" s="26"/>
-      <c r="K16" s="26"/>
-      <c r="L16" s="26"/>
-      <c r="M16" s="26"/>
-      <c r="N16" s="26"/>
-      <c r="O16" s="26"/>
-      <c r="P16" s="26"/>
+      <c r="J16" s="23"/>
+      <c r="K16" s="23"/>
+      <c r="L16" s="23"/>
+      <c r="M16" s="23"/>
+      <c r="N16" s="23"/>
+      <c r="O16" s="23"/>
+      <c r="P16" s="23"/>
     </row>
     <row r="17" ht="18" customHeight="1" spans="1:16">
       <c r="A17" s="1"/>
@@ -2036,20 +2030,20 @@
       <c r="D17" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="E17" s="23"/>
+      <c r="E17" s="17"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
-      <c r="J17" s="27" t="s">
+      <c r="J17" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="K17" s="28"/>
-      <c r="L17" s="28"/>
-      <c r="M17" s="28"/>
-      <c r="N17" s="28"/>
-      <c r="O17" s="28"/>
-      <c r="P17" s="33"/>
+      <c r="K17" s="25"/>
+      <c r="L17" s="25"/>
+      <c r="M17" s="25"/>
+      <c r="N17" s="25"/>
+      <c r="O17" s="25"/>
+      <c r="P17" s="30"/>
     </row>
     <row r="18" ht="18" customHeight="1" spans="1:16">
       <c r="A18" s="1"/>
@@ -2060,18 +2054,18 @@
       <c r="D18" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="E18" s="23"/>
+      <c r="E18" s="17"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
-      <c r="J18" s="29"/>
-      <c r="K18" s="30"/>
-      <c r="L18" s="30"/>
-      <c r="M18" s="30"/>
-      <c r="N18" s="30"/>
-      <c r="O18" s="30"/>
-      <c r="P18" s="34"/>
+      <c r="J18" s="26"/>
+      <c r="K18" s="27"/>
+      <c r="L18" s="27"/>
+      <c r="M18" s="27"/>
+      <c r="N18" s="27"/>
+      <c r="O18" s="27"/>
+      <c r="P18" s="31"/>
     </row>
     <row r="19" ht="18" customHeight="1" spans="1:16">
       <c r="A19" s="1"/>
@@ -2084,18 +2078,18 @@
       <c r="D19" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="E19" s="23"/>
+      <c r="E19" s="17"/>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
-      <c r="J19" s="29"/>
-      <c r="K19" s="30"/>
-      <c r="L19" s="30"/>
-      <c r="M19" s="30"/>
-      <c r="N19" s="30"/>
-      <c r="O19" s="30"/>
-      <c r="P19" s="34"/>
+      <c r="J19" s="26"/>
+      <c r="K19" s="27"/>
+      <c r="L19" s="27"/>
+      <c r="M19" s="27"/>
+      <c r="N19" s="27"/>
+      <c r="O19" s="27"/>
+      <c r="P19" s="31"/>
     </row>
     <row r="20" ht="18" customHeight="1" spans="1:16">
       <c r="A20" s="1"/>
@@ -2104,18 +2098,18 @@
       </c>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
-      <c r="E20" s="24"/>
+      <c r="E20" s="18"/>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
-      <c r="J20" s="29"/>
-      <c r="K20" s="30"/>
-      <c r="L20" s="30"/>
-      <c r="M20" s="30"/>
-      <c r="N20" s="30"/>
-      <c r="O20" s="30"/>
-      <c r="P20" s="34"/>
+      <c r="J20" s="26"/>
+      <c r="K20" s="27"/>
+      <c r="L20" s="27"/>
+      <c r="M20" s="27"/>
+      <c r="N20" s="27"/>
+      <c r="O20" s="27"/>
+      <c r="P20" s="31"/>
     </row>
     <row r="21" ht="18" customHeight="1" spans="1:16">
       <c r="A21" s="1"/>
@@ -2124,20 +2118,20 @@
       </c>
       <c r="C21" s="6"/>
       <c r="D21" s="6"/>
-      <c r="E21" s="25" t="s">
+      <c r="E21" s="19" t="s">
         <v>49</v>
       </c>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
-      <c r="J21" s="29"/>
-      <c r="K21" s="30"/>
-      <c r="L21" s="30"/>
-      <c r="M21" s="30"/>
-      <c r="N21" s="30"/>
-      <c r="O21" s="30"/>
-      <c r="P21" s="34"/>
+      <c r="J21" s="26"/>
+      <c r="K21" s="27"/>
+      <c r="L21" s="27"/>
+      <c r="M21" s="27"/>
+      <c r="N21" s="27"/>
+      <c r="O21" s="27"/>
+      <c r="P21" s="31"/>
     </row>
     <row r="22" ht="18" customHeight="1" spans="1:16">
       <c r="A22" s="1"/>
@@ -2161,13 +2155,13 @@
       </c>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
-      <c r="J22" s="29"/>
-      <c r="K22" s="30"/>
-      <c r="L22" s="30"/>
-      <c r="M22" s="30"/>
-      <c r="N22" s="30"/>
-      <c r="O22" s="30"/>
-      <c r="P22" s="34"/>
+      <c r="J22" s="26"/>
+      <c r="K22" s="27"/>
+      <c r="L22" s="27"/>
+      <c r="M22" s="27"/>
+      <c r="N22" s="27"/>
+      <c r="O22" s="27"/>
+      <c r="P22" s="31"/>
     </row>
     <row r="23" ht="18" customHeight="1" spans="1:16">
       <c r="A23" s="1" t="s">
@@ -2182,20 +2176,20 @@
       <c r="D23" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="E23" s="19" t="s">
+      <c r="E23" s="8" t="s">
         <v>56</v>
       </c>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
-      <c r="J23" s="29"/>
-      <c r="K23" s="30"/>
-      <c r="L23" s="30"/>
-      <c r="M23" s="30"/>
-      <c r="N23" s="30"/>
-      <c r="O23" s="30"/>
-      <c r="P23" s="34"/>
+      <c r="J23" s="26"/>
+      <c r="K23" s="27"/>
+      <c r="L23" s="27"/>
+      <c r="M23" s="27"/>
+      <c r="N23" s="27"/>
+      <c r="O23" s="27"/>
+      <c r="P23" s="31"/>
     </row>
     <row r="24" ht="18" customHeight="1" spans="1:16">
       <c r="A24" s="1"/>
@@ -2204,18 +2198,18 @@
       </c>
       <c r="C24" s="7"/>
       <c r="D24" s="12"/>
-      <c r="E24" s="20"/>
+      <c r="E24" s="10"/>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
-      <c r="J24" s="29"/>
-      <c r="K24" s="30"/>
-      <c r="L24" s="30"/>
-      <c r="M24" s="30"/>
-      <c r="N24" s="30"/>
-      <c r="O24" s="30"/>
-      <c r="P24" s="34"/>
+      <c r="J24" s="26"/>
+      <c r="K24" s="27"/>
+      <c r="L24" s="27"/>
+      <c r="M24" s="27"/>
+      <c r="N24" s="27"/>
+      <c r="O24" s="27"/>
+      <c r="P24" s="31"/>
     </row>
     <row r="25" ht="18" customHeight="1" spans="1:16">
       <c r="A25" s="1"/>
@@ -2226,18 +2220,18 @@
       <c r="D25" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="E25" s="20"/>
+      <c r="E25" s="10"/>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
-      <c r="J25" s="29"/>
-      <c r="K25" s="30"/>
-      <c r="L25" s="30"/>
-      <c r="M25" s="30"/>
-      <c r="N25" s="30"/>
-      <c r="O25" s="30"/>
-      <c r="P25" s="34"/>
+      <c r="J25" s="26"/>
+      <c r="K25" s="27"/>
+      <c r="L25" s="27"/>
+      <c r="M25" s="27"/>
+      <c r="N25" s="27"/>
+      <c r="O25" s="27"/>
+      <c r="P25" s="31"/>
     </row>
     <row r="26" ht="18" customHeight="1" spans="1:16">
       <c r="A26" s="1"/>
@@ -2246,18 +2240,18 @@
       </c>
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
-      <c r="E26" s="21"/>
+      <c r="E26" s="12"/>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
-      <c r="J26" s="29"/>
-      <c r="K26" s="30"/>
-      <c r="L26" s="30"/>
-      <c r="M26" s="30"/>
-      <c r="N26" s="30"/>
-      <c r="O26" s="30"/>
-      <c r="P26" s="34"/>
+      <c r="J26" s="26"/>
+      <c r="K26" s="27"/>
+      <c r="L26" s="27"/>
+      <c r="M26" s="27"/>
+      <c r="N26" s="27"/>
+      <c r="O26" s="27"/>
+      <c r="P26" s="31"/>
     </row>
     <row r="27" ht="18" customHeight="1" spans="1:16">
       <c r="A27" s="1"/>
@@ -2266,194 +2260,196 @@
       </c>
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
-      <c r="E27" s="1"/>
+      <c r="E27" s="20" t="s">
+        <v>62</v>
+      </c>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
-      <c r="J27" s="29"/>
-      <c r="K27" s="30"/>
-      <c r="L27" s="30"/>
-      <c r="M27" s="30"/>
-      <c r="N27" s="30"/>
-      <c r="O27" s="30"/>
-      <c r="P27" s="34"/>
+      <c r="J27" s="26"/>
+      <c r="K27" s="27"/>
+      <c r="L27" s="27"/>
+      <c r="M27" s="27"/>
+      <c r="N27" s="27"/>
+      <c r="O27" s="27"/>
+      <c r="P27" s="31"/>
     </row>
     <row r="28" ht="18" customHeight="1" spans="1:16">
       <c r="A28" s="1"/>
       <c r="B28" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
-      <c r="E28" s="1"/>
+      <c r="E28" s="21"/>
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
-      <c r="J28" s="29"/>
-      <c r="K28" s="30"/>
-      <c r="L28" s="30"/>
-      <c r="M28" s="30"/>
-      <c r="N28" s="30"/>
-      <c r="O28" s="30"/>
-      <c r="P28" s="34"/>
+      <c r="J28" s="26"/>
+      <c r="K28" s="27"/>
+      <c r="L28" s="27"/>
+      <c r="M28" s="27"/>
+      <c r="N28" s="27"/>
+      <c r="O28" s="27"/>
+      <c r="P28" s="31"/>
     </row>
     <row r="29" ht="18" customHeight="1" spans="1:16">
       <c r="A29" s="1"/>
       <c r="B29" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C29" s="6"/>
       <c r="D29" s="7"/>
-      <c r="E29" s="1"/>
+      <c r="E29" s="21"/>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
-      <c r="J29" s="29"/>
-      <c r="K29" s="30"/>
-      <c r="L29" s="30"/>
-      <c r="M29" s="30"/>
-      <c r="N29" s="30"/>
-      <c r="O29" s="30"/>
-      <c r="P29" s="34"/>
+      <c r="J29" s="26"/>
+      <c r="K29" s="27"/>
+      <c r="L29" s="27"/>
+      <c r="M29" s="27"/>
+      <c r="N29" s="27"/>
+      <c r="O29" s="27"/>
+      <c r="P29" s="31"/>
     </row>
     <row r="30" ht="18" customHeight="1" spans="1:16">
       <c r="A30" s="1"/>
       <c r="B30" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D30" s="7"/>
-      <c r="E30" s="1"/>
+      <c r="E30" s="21"/>
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
-      <c r="J30" s="29"/>
-      <c r="K30" s="30"/>
-      <c r="L30" s="30"/>
-      <c r="M30" s="30"/>
-      <c r="N30" s="30"/>
-      <c r="O30" s="30"/>
-      <c r="P30" s="34"/>
+      <c r="J30" s="26"/>
+      <c r="K30" s="27"/>
+      <c r="L30" s="27"/>
+      <c r="M30" s="27"/>
+      <c r="N30" s="27"/>
+      <c r="O30" s="27"/>
+      <c r="P30" s="31"/>
     </row>
     <row r="31" ht="18" customHeight="1" spans="1:16">
       <c r="A31" s="1"/>
       <c r="B31" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C31" s="6"/>
       <c r="D31" s="6"/>
-      <c r="E31" s="1"/>
+      <c r="E31" s="22"/>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
-      <c r="J31" s="29"/>
-      <c r="K31" s="30"/>
-      <c r="L31" s="30"/>
-      <c r="M31" s="30"/>
-      <c r="N31" s="30"/>
-      <c r="O31" s="30"/>
-      <c r="P31" s="34"/>
+      <c r="J31" s="26"/>
+      <c r="K31" s="27"/>
+      <c r="L31" s="27"/>
+      <c r="M31" s="27"/>
+      <c r="N31" s="27"/>
+      <c r="O31" s="27"/>
+      <c r="P31" s="31"/>
     </row>
     <row r="32" ht="18" customHeight="1" spans="1:16">
       <c r="A32" s="1"/>
       <c r="B32" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E32" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="F32" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="F32" s="1" t="s">
-        <v>68</v>
-      </c>
       <c r="G32" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
-      <c r="J32" s="29"/>
-      <c r="K32" s="30"/>
-      <c r="L32" s="30"/>
-      <c r="M32" s="30"/>
-      <c r="N32" s="30"/>
-      <c r="O32" s="30"/>
-      <c r="P32" s="34"/>
+      <c r="J32" s="26"/>
+      <c r="K32" s="27"/>
+      <c r="L32" s="27"/>
+      <c r="M32" s="27"/>
+      <c r="N32" s="27"/>
+      <c r="O32" s="27"/>
+      <c r="P32" s="31"/>
     </row>
     <row r="33" ht="18" customHeight="1" spans="1:16">
       <c r="A33" s="1"/>
       <c r="B33" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
-      <c r="J33" s="29"/>
-      <c r="K33" s="30"/>
-      <c r="L33" s="30"/>
-      <c r="M33" s="30"/>
-      <c r="N33" s="30"/>
-      <c r="O33" s="30"/>
-      <c r="P33" s="34"/>
+      <c r="J33" s="26"/>
+      <c r="K33" s="27"/>
+      <c r="L33" s="27"/>
+      <c r="M33" s="27"/>
+      <c r="N33" s="27"/>
+      <c r="O33" s="27"/>
+      <c r="P33" s="31"/>
     </row>
     <row r="34" ht="18" customHeight="1" spans="1:16">
       <c r="A34" s="1"/>
       <c r="B34" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
-      <c r="J34" s="29"/>
-      <c r="K34" s="30"/>
-      <c r="L34" s="30"/>
-      <c r="M34" s="30"/>
-      <c r="N34" s="30"/>
-      <c r="O34" s="30"/>
-      <c r="P34" s="34"/>
+      <c r="J34" s="26"/>
+      <c r="K34" s="27"/>
+      <c r="L34" s="27"/>
+      <c r="M34" s="27"/>
+      <c r="N34" s="27"/>
+      <c r="O34" s="27"/>
+      <c r="P34" s="31"/>
     </row>
     <row r="35" spans="1:16">
       <c r="A35" s="15" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B35" s="15"/>
       <c r="C35" s="15"/>
@@ -2463,13 +2459,13 @@
       <c r="G35" s="15"/>
       <c r="H35" s="15"/>
       <c r="I35" s="15"/>
-      <c r="J35" s="29"/>
-      <c r="K35" s="30"/>
-      <c r="L35" s="30"/>
-      <c r="M35" s="30"/>
-      <c r="N35" s="30"/>
-      <c r="O35" s="30"/>
-      <c r="P35" s="34"/>
+      <c r="J35" s="26"/>
+      <c r="K35" s="27"/>
+      <c r="L35" s="27"/>
+      <c r="M35" s="27"/>
+      <c r="N35" s="27"/>
+      <c r="O35" s="27"/>
+      <c r="P35" s="31"/>
     </row>
     <row r="36" spans="1:16">
       <c r="A36" s="15"/>
@@ -2481,13 +2477,13 @@
       <c r="G36" s="15"/>
       <c r="H36" s="15"/>
       <c r="I36" s="15"/>
-      <c r="J36" s="29"/>
-      <c r="K36" s="30"/>
-      <c r="L36" s="30"/>
-      <c r="M36" s="30"/>
-      <c r="N36" s="30"/>
-      <c r="O36" s="30"/>
-      <c r="P36" s="34"/>
+      <c r="J36" s="26"/>
+      <c r="K36" s="27"/>
+      <c r="L36" s="27"/>
+      <c r="M36" s="27"/>
+      <c r="N36" s="27"/>
+      <c r="O36" s="27"/>
+      <c r="P36" s="31"/>
     </row>
     <row r="37" spans="1:16">
       <c r="A37" s="15"/>
@@ -2499,13 +2495,13 @@
       <c r="G37" s="15"/>
       <c r="H37" s="15"/>
       <c r="I37" s="15"/>
-      <c r="J37" s="29"/>
-      <c r="K37" s="30"/>
-      <c r="L37" s="30"/>
-      <c r="M37" s="30"/>
-      <c r="N37" s="30"/>
-      <c r="O37" s="30"/>
-      <c r="P37" s="34"/>
+      <c r="J37" s="26"/>
+      <c r="K37" s="27"/>
+      <c r="L37" s="27"/>
+      <c r="M37" s="27"/>
+      <c r="N37" s="27"/>
+      <c r="O37" s="27"/>
+      <c r="P37" s="31"/>
     </row>
     <row r="38" spans="1:16">
       <c r="A38" s="15"/>
@@ -2517,16 +2513,16 @@
       <c r="G38" s="15"/>
       <c r="H38" s="15"/>
       <c r="I38" s="15"/>
-      <c r="J38" s="31"/>
-      <c r="K38" s="32"/>
-      <c r="L38" s="32"/>
-      <c r="M38" s="32"/>
-      <c r="N38" s="32"/>
-      <c r="O38" s="32"/>
-      <c r="P38" s="35"/>
+      <c r="J38" s="28"/>
+      <c r="K38" s="29"/>
+      <c r="L38" s="29"/>
+      <c r="M38" s="29"/>
+      <c r="N38" s="29"/>
+      <c r="O38" s="29"/>
+      <c r="P38" s="32"/>
     </row>
   </sheetData>
-  <mergeCells count="24">
+  <mergeCells count="25">
     <mergeCell ref="A2:A11"/>
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A16:A22"/>
@@ -2548,6 +2544,7 @@
     <mergeCell ref="E12:E14"/>
     <mergeCell ref="E15:E20"/>
     <mergeCell ref="E23:E26"/>
+    <mergeCell ref="E27:E31"/>
     <mergeCell ref="A35:I38"/>
     <mergeCell ref="J1:P16"/>
     <mergeCell ref="J17:P38"/>

--- a/2018.10.29-2018.11.4.xlsx
+++ b/2018.10.29-2018.11.4.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="12945"/>
+    <workbookView windowWidth="28695" windowHeight="12495"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="83">
   <si>
     <t>时间段</t>
   </si>
@@ -183,6 +183,9 @@
     <t>骑车去实验室</t>
   </si>
   <si>
+    <t>去教室 吃早饭</t>
+  </si>
+  <si>
     <t>08：00-08：30</t>
   </si>
   <si>
@@ -195,6 +198,12 @@
     <t>学习视频第五天剩余的部分，看了一些其中总结的博客，效率不是很高，实验室很吵</t>
   </si>
   <si>
+    <t>组合数学</t>
+  </si>
+  <si>
+    <t>学习CNN</t>
+  </si>
+  <si>
     <t>08：30-09：00</t>
   </si>
   <si>
@@ -252,6 +261,12 @@
     <t>开心的去体育馆打羽毛球</t>
   </si>
   <si>
+    <t>弄天池比赛的事情</t>
+  </si>
+  <si>
+    <t>科技论文报告会</t>
+  </si>
+  <si>
     <t>下午</t>
   </si>
   <si>
@@ -310,6 +325,12 @@
   </si>
   <si>
     <t>看了会儿电视</t>
+  </si>
+  <si>
+    <t>安装环境 配置天池要运行的组件</t>
+  </si>
+  <si>
+    <t>去打台球 休息了</t>
   </si>
   <si>
     <t>18：30-19：00</t>
@@ -378,9 +399,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
@@ -400,17 +421,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -423,8 +435,40 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -439,7 +483,7 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -448,7 +492,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -462,22 +506,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -506,9 +535,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -521,15 +549,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="15"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -537,10 +558,10 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -623,6 +644,36 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -641,13 +692,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -659,73 +800,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -737,67 +812,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -946,48 +967,25 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1010,18 +1008,26 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1040,157 +1046,172 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="19" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="20" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1239,25 +1260,43 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1356,7 +1395,7 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="4C4C4C"/>
+        <a:sysClr val="windowText" lastClr="313739"/>
       </a:dk1>
       <a:lt1>
         <a:sysClr val="window" lastClr="FFFFFF"/>
@@ -1612,7 +1651,7 @@
   <dimension ref="A1:P38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1649,15 +1688,15 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="23" t="s">
+      <c r="J1" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="23"/>
-      <c r="L1" s="23"/>
-      <c r="M1" s="23"/>
-      <c r="N1" s="23"/>
-      <c r="O1" s="23"/>
-      <c r="P1" s="23"/>
+      <c r="K1" s="29"/>
+      <c r="L1" s="29"/>
+      <c r="M1" s="29"/>
+      <c r="N1" s="29"/>
+      <c r="O1" s="29"/>
+      <c r="P1" s="29"/>
     </row>
     <row r="2" ht="18" customHeight="1" spans="1:16">
       <c r="A2" s="1" t="s">
@@ -1675,21 +1714,21 @@
       <c r="E2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="3" t="s">
         <v>11</v>
       </c>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
-      <c r="J2" s="23"/>
-      <c r="K2" s="23"/>
-      <c r="L2" s="23"/>
-      <c r="M2" s="23"/>
-      <c r="N2" s="23"/>
-      <c r="O2" s="23"/>
-      <c r="P2" s="23"/>
+      <c r="J2" s="29"/>
+      <c r="K2" s="29"/>
+      <c r="L2" s="29"/>
+      <c r="M2" s="29"/>
+      <c r="N2" s="29"/>
+      <c r="O2" s="29"/>
+      <c r="P2" s="29"/>
     </row>
     <row r="3" ht="18" customHeight="1" spans="1:16">
       <c r="A3" s="1"/>
@@ -1705,751 +1744,763 @@
       <c r="E3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" s="2" t="s">
+      <c r="F3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="4" t="s">
         <v>13</v>
       </c>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
-      <c r="J3" s="23"/>
-      <c r="K3" s="23"/>
-      <c r="L3" s="23"/>
-      <c r="M3" s="23"/>
-      <c r="N3" s="23"/>
-      <c r="O3" s="23"/>
-      <c r="P3" s="23"/>
+      <c r="J3" s="29"/>
+      <c r="K3" s="29"/>
+      <c r="L3" s="29"/>
+      <c r="M3" s="29"/>
+      <c r="N3" s="29"/>
+      <c r="O3" s="29"/>
+      <c r="P3" s="29"/>
     </row>
     <row r="4" ht="18" customHeight="1" spans="1:16">
       <c r="A4" s="1"/>
       <c r="B4" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
+        <v>18</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>20</v>
+      </c>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
-      <c r="J4" s="23"/>
-      <c r="K4" s="23"/>
-      <c r="L4" s="23"/>
-      <c r="M4" s="23"/>
-      <c r="N4" s="23"/>
-      <c r="O4" s="23"/>
-      <c r="P4" s="23"/>
+      <c r="J4" s="29"/>
+      <c r="K4" s="29"/>
+      <c r="L4" s="29"/>
+      <c r="M4" s="29"/>
+      <c r="N4" s="29"/>
+      <c r="O4" s="29"/>
+      <c r="P4" s="29"/>
     </row>
     <row r="5" ht="18" customHeight="1" spans="1:16">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="5" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E5" s="7"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
-      <c r="J5" s="23"/>
-      <c r="K5" s="23"/>
-      <c r="L5" s="23"/>
-      <c r="M5" s="23"/>
-      <c r="N5" s="23"/>
-      <c r="O5" s="23"/>
-      <c r="P5" s="23"/>
+      <c r="J5" s="29"/>
+      <c r="K5" s="29"/>
+      <c r="L5" s="29"/>
+      <c r="M5" s="29"/>
+      <c r="N5" s="29"/>
+      <c r="O5" s="29"/>
+      <c r="P5" s="29"/>
     </row>
     <row r="6" ht="18" customHeight="1" spans="1:16">
       <c r="A6" s="1"/>
       <c r="B6" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
-      <c r="J6" s="23"/>
-      <c r="K6" s="23"/>
-      <c r="L6" s="23"/>
-      <c r="M6" s="23"/>
-      <c r="N6" s="23"/>
-      <c r="O6" s="23"/>
-      <c r="P6" s="23"/>
+      <c r="J6" s="29"/>
+      <c r="K6" s="29"/>
+      <c r="L6" s="29"/>
+      <c r="M6" s="29"/>
+      <c r="N6" s="29"/>
+      <c r="O6" s="29"/>
+      <c r="P6" s="29"/>
     </row>
     <row r="7" ht="18" customHeight="1" spans="1:16">
       <c r="A7" s="1"/>
       <c r="B7" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
       <c r="E7" s="7"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
-      <c r="J7" s="23"/>
-      <c r="K7" s="23"/>
-      <c r="L7" s="23"/>
-      <c r="M7" s="23"/>
-      <c r="N7" s="23"/>
-      <c r="O7" s="23"/>
-      <c r="P7" s="23"/>
+      <c r="J7" s="29"/>
+      <c r="K7" s="29"/>
+      <c r="L7" s="29"/>
+      <c r="M7" s="29"/>
+      <c r="N7" s="29"/>
+      <c r="O7" s="29"/>
+      <c r="P7" s="29"/>
     </row>
     <row r="8" ht="18" customHeight="1" spans="1:16">
       <c r="A8" s="1"/>
       <c r="B8" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
       <c r="E8" s="7"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
-      <c r="J8" s="23"/>
-      <c r="K8" s="23"/>
-      <c r="L8" s="23"/>
-      <c r="M8" s="23"/>
-      <c r="N8" s="23"/>
-      <c r="O8" s="23"/>
-      <c r="P8" s="23"/>
+      <c r="J8" s="29"/>
+      <c r="K8" s="29"/>
+      <c r="L8" s="29"/>
+      <c r="M8" s="29"/>
+      <c r="N8" s="29"/>
+      <c r="O8" s="29"/>
+      <c r="P8" s="29"/>
     </row>
     <row r="9" ht="18" customHeight="1" spans="1:16">
       <c r="A9" s="1"/>
       <c r="B9" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
       <c r="E9" s="7"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
-      <c r="J9" s="23"/>
-      <c r="K9" s="23"/>
-      <c r="L9" s="23"/>
-      <c r="M9" s="23"/>
-      <c r="N9" s="23"/>
-      <c r="O9" s="23"/>
-      <c r="P9" s="23"/>
+      <c r="J9" s="29"/>
+      <c r="K9" s="29"/>
+      <c r="L9" s="29"/>
+      <c r="M9" s="29"/>
+      <c r="N9" s="29"/>
+      <c r="O9" s="29"/>
+      <c r="P9" s="29"/>
     </row>
     <row r="10" ht="18" customHeight="1" spans="1:16">
       <c r="A10" s="1"/>
       <c r="B10" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C10" s="6"/>
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
-      <c r="J10" s="23"/>
-      <c r="K10" s="23"/>
-      <c r="L10" s="23"/>
-      <c r="M10" s="23"/>
-      <c r="N10" s="23"/>
-      <c r="O10" s="23"/>
-      <c r="P10" s="23"/>
+      <c r="J10" s="29"/>
+      <c r="K10" s="29"/>
+      <c r="L10" s="29"/>
+      <c r="M10" s="29"/>
+      <c r="N10" s="29"/>
+      <c r="O10" s="29"/>
+      <c r="P10" s="29"/>
     </row>
     <row r="11" ht="18" customHeight="1" spans="1:16">
       <c r="A11" s="1"/>
       <c r="B11" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>30</v>
       </c>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
-      <c r="J11" s="23"/>
-      <c r="K11" s="23"/>
-      <c r="L11" s="23"/>
-      <c r="M11" s="23"/>
-      <c r="N11" s="23"/>
-      <c r="O11" s="23"/>
-      <c r="P11" s="23"/>
+      <c r="J11" s="29"/>
+      <c r="K11" s="29"/>
+      <c r="L11" s="29"/>
+      <c r="M11" s="29"/>
+      <c r="N11" s="29"/>
+      <c r="O11" s="29"/>
+      <c r="P11" s="29"/>
     </row>
     <row r="12" ht="18" customHeight="1" spans="1:16">
       <c r="A12" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
+        <v>33</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="G12" s="16" t="s">
+        <v>33</v>
+      </c>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
-      <c r="J12" s="23"/>
-      <c r="K12" s="23"/>
-      <c r="L12" s="23"/>
-      <c r="M12" s="23"/>
-      <c r="N12" s="23"/>
-      <c r="O12" s="23"/>
-      <c r="P12" s="23"/>
+      <c r="J12" s="29"/>
+      <c r="K12" s="29"/>
+      <c r="L12" s="29"/>
+      <c r="M12" s="29"/>
+      <c r="N12" s="29"/>
+      <c r="O12" s="29"/>
+      <c r="P12" s="29"/>
     </row>
     <row r="13" ht="18" customHeight="1" spans="1:16">
       <c r="A13" s="1"/>
       <c r="B13" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C13" s="10"/>
       <c r="D13" s="11"/>
       <c r="E13" s="10"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="17"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
-      <c r="J13" s="23"/>
-      <c r="K13" s="23"/>
-      <c r="L13" s="23"/>
-      <c r="M13" s="23"/>
-      <c r="N13" s="23"/>
-      <c r="O13" s="23"/>
-      <c r="P13" s="23"/>
+      <c r="J13" s="29"/>
+      <c r="K13" s="29"/>
+      <c r="L13" s="29"/>
+      <c r="M13" s="29"/>
+      <c r="N13" s="29"/>
+      <c r="O13" s="29"/>
+      <c r="P13" s="29"/>
     </row>
     <row r="14" ht="18" customHeight="1" spans="1:16">
       <c r="A14" s="1"/>
       <c r="B14" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C14" s="12"/>
       <c r="D14" s="13"/>
       <c r="E14" s="12"/>
-      <c r="F14" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>30</v>
-      </c>
+      <c r="F14" s="12"/>
+      <c r="G14" s="18"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
-      <c r="J14" s="23"/>
-      <c r="K14" s="23"/>
-      <c r="L14" s="23"/>
-      <c r="M14" s="23"/>
-      <c r="N14" s="23"/>
-      <c r="O14" s="23"/>
-      <c r="P14" s="23"/>
+      <c r="J14" s="29"/>
+      <c r="K14" s="29"/>
+      <c r="L14" s="29"/>
+      <c r="M14" s="29"/>
+      <c r="N14" s="29"/>
+      <c r="O14" s="29"/>
+      <c r="P14" s="29"/>
     </row>
     <row r="15" ht="18" customHeight="1" spans="1:16">
       <c r="A15" s="1"/>
       <c r="B15" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="E15" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
+        <v>33</v>
+      </c>
+      <c r="E15" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="F15" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="G15" s="20" t="s">
+        <v>41</v>
+      </c>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
-      <c r="J15" s="23"/>
-      <c r="K15" s="23"/>
-      <c r="L15" s="23"/>
-      <c r="M15" s="23"/>
-      <c r="N15" s="23"/>
-      <c r="O15" s="23"/>
-      <c r="P15" s="23"/>
+      <c r="J15" s="29"/>
+      <c r="K15" s="29"/>
+      <c r="L15" s="29"/>
+      <c r="M15" s="29"/>
+      <c r="N15" s="29"/>
+      <c r="O15" s="29"/>
+      <c r="P15" s="29"/>
     </row>
     <row r="16" ht="18" customHeight="1" spans="1:16">
       <c r="A16" s="1" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C16" s="7"/>
       <c r="D16" s="12"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
+      <c r="E16" s="21"/>
+      <c r="F16" s="22"/>
+      <c r="G16" s="22"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
-      <c r="J16" s="23"/>
-      <c r="K16" s="23"/>
-      <c r="L16" s="23"/>
-      <c r="M16" s="23"/>
-      <c r="N16" s="23"/>
-      <c r="O16" s="23"/>
-      <c r="P16" s="23"/>
+      <c r="J16" s="29"/>
+      <c r="K16" s="29"/>
+      <c r="L16" s="29"/>
+      <c r="M16" s="29"/>
+      <c r="N16" s="29"/>
+      <c r="O16" s="29"/>
+      <c r="P16" s="29"/>
     </row>
     <row r="17" ht="18" customHeight="1" spans="1:16">
       <c r="A17" s="1"/>
       <c r="B17" s="1" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="C17" s="7"/>
       <c r="D17" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="E17" s="17"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
+        <v>45</v>
+      </c>
+      <c r="E17" s="21"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="22"/>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
-      <c r="J17" s="24" t="s">
-        <v>41</v>
-      </c>
-      <c r="K17" s="25"/>
-      <c r="L17" s="25"/>
-      <c r="M17" s="25"/>
-      <c r="N17" s="25"/>
-      <c r="O17" s="25"/>
-      <c r="P17" s="30"/>
+      <c r="J17" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="K17" s="31"/>
+      <c r="L17" s="31"/>
+      <c r="M17" s="31"/>
+      <c r="N17" s="31"/>
+      <c r="O17" s="31"/>
+      <c r="P17" s="36"/>
     </row>
     <row r="18" ht="18" customHeight="1" spans="1:16">
       <c r="A18" s="1"/>
       <c r="B18" s="1" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C18" s="6"/>
       <c r="D18" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="E18" s="17"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
+        <v>48</v>
+      </c>
+      <c r="E18" s="21"/>
+      <c r="F18" s="22"/>
+      <c r="G18" s="22"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
-      <c r="J18" s="26"/>
-      <c r="K18" s="27"/>
-      <c r="L18" s="27"/>
-      <c r="M18" s="27"/>
-      <c r="N18" s="27"/>
-      <c r="O18" s="27"/>
-      <c r="P18" s="31"/>
+      <c r="J18" s="32"/>
+      <c r="K18" s="33"/>
+      <c r="L18" s="33"/>
+      <c r="M18" s="33"/>
+      <c r="N18" s="33"/>
+      <c r="O18" s="33"/>
+      <c r="P18" s="37"/>
     </row>
     <row r="19" ht="18" customHeight="1" spans="1:16">
       <c r="A19" s="1"/>
       <c r="B19" s="1" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="E19" s="17"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
+        <v>51</v>
+      </c>
+      <c r="E19" s="21"/>
+      <c r="F19" s="22"/>
+      <c r="G19" s="22"/>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
-      <c r="J19" s="26"/>
-      <c r="K19" s="27"/>
-      <c r="L19" s="27"/>
-      <c r="M19" s="27"/>
-      <c r="N19" s="27"/>
-      <c r="O19" s="27"/>
-      <c r="P19" s="31"/>
+      <c r="J19" s="32"/>
+      <c r="K19" s="33"/>
+      <c r="L19" s="33"/>
+      <c r="M19" s="33"/>
+      <c r="N19" s="33"/>
+      <c r="O19" s="33"/>
+      <c r="P19" s="37"/>
     </row>
     <row r="20" ht="18" customHeight="1" spans="1:16">
       <c r="A20" s="1"/>
       <c r="B20" s="1" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
-      <c r="E20" s="18"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
+      <c r="E20" s="23"/>
+      <c r="F20" s="22"/>
+      <c r="G20" s="22"/>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
-      <c r="J20" s="26"/>
-      <c r="K20" s="27"/>
-      <c r="L20" s="27"/>
-      <c r="M20" s="27"/>
-      <c r="N20" s="27"/>
-      <c r="O20" s="27"/>
-      <c r="P20" s="31"/>
+      <c r="J20" s="32"/>
+      <c r="K20" s="33"/>
+      <c r="L20" s="33"/>
+      <c r="M20" s="33"/>
+      <c r="N20" s="33"/>
+      <c r="O20" s="33"/>
+      <c r="P20" s="37"/>
     </row>
     <row r="21" ht="18" customHeight="1" spans="1:16">
       <c r="A21" s="1"/>
       <c r="B21" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="C21" s="6"/>
       <c r="D21" s="6"/>
-      <c r="E21" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
+      <c r="E21" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="F21" s="25"/>
+      <c r="G21" s="25"/>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
-      <c r="J21" s="26"/>
-      <c r="K21" s="27"/>
-      <c r="L21" s="27"/>
-      <c r="M21" s="27"/>
-      <c r="N21" s="27"/>
-      <c r="O21" s="27"/>
-      <c r="P21" s="31"/>
+      <c r="J21" s="32"/>
+      <c r="K21" s="33"/>
+      <c r="L21" s="33"/>
+      <c r="M21" s="33"/>
+      <c r="N21" s="33"/>
+      <c r="O21" s="33"/>
+      <c r="P21" s="37"/>
     </row>
     <row r="22" ht="18" customHeight="1" spans="1:16">
       <c r="A22" s="1"/>
       <c r="B22" s="1" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>51</v>
+        <v>56</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>56</v>
       </c>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
-      <c r="J22" s="26"/>
-      <c r="K22" s="27"/>
-      <c r="L22" s="27"/>
-      <c r="M22" s="27"/>
-      <c r="N22" s="27"/>
-      <c r="O22" s="27"/>
-      <c r="P22" s="31"/>
+      <c r="J22" s="32"/>
+      <c r="K22" s="33"/>
+      <c r="L22" s="33"/>
+      <c r="M22" s="33"/>
+      <c r="N22" s="33"/>
+      <c r="O22" s="33"/>
+      <c r="P22" s="37"/>
     </row>
     <row r="23" ht="18" customHeight="1" spans="1:16">
       <c r="A23" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
+        <v>61</v>
+      </c>
+      <c r="F23" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="G23" s="26" t="s">
+        <v>63</v>
+      </c>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
-      <c r="J23" s="26"/>
-      <c r="K23" s="27"/>
-      <c r="L23" s="27"/>
-      <c r="M23" s="27"/>
-      <c r="N23" s="27"/>
-      <c r="O23" s="27"/>
-      <c r="P23" s="31"/>
+      <c r="J23" s="32"/>
+      <c r="K23" s="33"/>
+      <c r="L23" s="33"/>
+      <c r="M23" s="33"/>
+      <c r="N23" s="33"/>
+      <c r="O23" s="33"/>
+      <c r="P23" s="37"/>
     </row>
     <row r="24" ht="18" customHeight="1" spans="1:16">
       <c r="A24" s="1"/>
       <c r="B24" s="1" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="C24" s="7"/>
       <c r="D24" s="12"/>
       <c r="E24" s="10"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
+      <c r="F24" s="22"/>
+      <c r="G24" s="27"/>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
-      <c r="J24" s="26"/>
-      <c r="K24" s="27"/>
-      <c r="L24" s="27"/>
-      <c r="M24" s="27"/>
-      <c r="N24" s="27"/>
-      <c r="O24" s="27"/>
-      <c r="P24" s="31"/>
+      <c r="J24" s="32"/>
+      <c r="K24" s="33"/>
+      <c r="L24" s="33"/>
+      <c r="M24" s="33"/>
+      <c r="N24" s="33"/>
+      <c r="O24" s="33"/>
+      <c r="P24" s="37"/>
     </row>
     <row r="25" ht="18" customHeight="1" spans="1:16">
       <c r="A25" s="1"/>
       <c r="B25" s="1" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="C25" s="7"/>
       <c r="D25" s="5" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="E25" s="10"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
+      <c r="F25" s="22"/>
+      <c r="G25" s="27"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
-      <c r="J25" s="26"/>
-      <c r="K25" s="27"/>
-      <c r="L25" s="27"/>
-      <c r="M25" s="27"/>
-      <c r="N25" s="27"/>
-      <c r="O25" s="27"/>
-      <c r="P25" s="31"/>
+      <c r="J25" s="32"/>
+      <c r="K25" s="33"/>
+      <c r="L25" s="33"/>
+      <c r="M25" s="33"/>
+      <c r="N25" s="33"/>
+      <c r="O25" s="33"/>
+      <c r="P25" s="37"/>
     </row>
     <row r="26" ht="18" customHeight="1" spans="1:16">
       <c r="A26" s="1"/>
       <c r="B26" s="1" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
       <c r="E26" s="12"/>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
+      <c r="F26" s="22"/>
+      <c r="G26" s="27"/>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
-      <c r="J26" s="26"/>
-      <c r="K26" s="27"/>
-      <c r="L26" s="27"/>
-      <c r="M26" s="27"/>
-      <c r="N26" s="27"/>
-      <c r="O26" s="27"/>
-      <c r="P26" s="31"/>
+      <c r="J26" s="32"/>
+      <c r="K26" s="33"/>
+      <c r="L26" s="33"/>
+      <c r="M26" s="33"/>
+      <c r="N26" s="33"/>
+      <c r="O26" s="33"/>
+      <c r="P26" s="37"/>
     </row>
     <row r="27" ht="18" customHeight="1" spans="1:16">
       <c r="A27" s="1"/>
       <c r="B27" s="1" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
-      <c r="E27" s="20" t="s">
-        <v>62</v>
-      </c>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
+      <c r="E27" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="F27" s="22"/>
+      <c r="G27" s="27"/>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
-      <c r="J27" s="26"/>
-      <c r="K27" s="27"/>
-      <c r="L27" s="27"/>
-      <c r="M27" s="27"/>
-      <c r="N27" s="27"/>
-      <c r="O27" s="27"/>
-      <c r="P27" s="31"/>
+      <c r="J27" s="32"/>
+      <c r="K27" s="33"/>
+      <c r="L27" s="33"/>
+      <c r="M27" s="33"/>
+      <c r="N27" s="33"/>
+      <c r="O27" s="33"/>
+      <c r="P27" s="37"/>
     </row>
     <row r="28" ht="18" customHeight="1" spans="1:16">
       <c r="A28" s="1"/>
       <c r="B28" s="1" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
-      <c r="E28" s="21"/>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="22"/>
+      <c r="G28" s="27"/>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
-      <c r="J28" s="26"/>
-      <c r="K28" s="27"/>
-      <c r="L28" s="27"/>
-      <c r="M28" s="27"/>
-      <c r="N28" s="27"/>
-      <c r="O28" s="27"/>
-      <c r="P28" s="31"/>
+      <c r="J28" s="32"/>
+      <c r="K28" s="33"/>
+      <c r="L28" s="33"/>
+      <c r="M28" s="33"/>
+      <c r="N28" s="33"/>
+      <c r="O28" s="33"/>
+      <c r="P28" s="37"/>
     </row>
     <row r="29" ht="18" customHeight="1" spans="1:16">
       <c r="A29" s="1"/>
       <c r="B29" s="1" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="C29" s="6"/>
       <c r="D29" s="7"/>
-      <c r="E29" s="21"/>
-      <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="22"/>
+      <c r="G29" s="27"/>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
-      <c r="J29" s="26"/>
-      <c r="K29" s="27"/>
-      <c r="L29" s="27"/>
-      <c r="M29" s="27"/>
-      <c r="N29" s="27"/>
-      <c r="O29" s="27"/>
-      <c r="P29" s="31"/>
+      <c r="J29" s="32"/>
+      <c r="K29" s="33"/>
+      <c r="L29" s="33"/>
+      <c r="M29" s="33"/>
+      <c r="N29" s="33"/>
+      <c r="O29" s="33"/>
+      <c r="P29" s="37"/>
     </row>
     <row r="30" ht="18" customHeight="1" spans="1:16">
       <c r="A30" s="1"/>
       <c r="B30" s="1" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="D30" s="7"/>
-      <c r="E30" s="21"/>
-      <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="22"/>
+      <c r="G30" s="28"/>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
-      <c r="J30" s="26"/>
-      <c r="K30" s="27"/>
-      <c r="L30" s="27"/>
-      <c r="M30" s="27"/>
-      <c r="N30" s="27"/>
-      <c r="O30" s="27"/>
-      <c r="P30" s="31"/>
+      <c r="J30" s="32"/>
+      <c r="K30" s="33"/>
+      <c r="L30" s="33"/>
+      <c r="M30" s="33"/>
+      <c r="N30" s="33"/>
+      <c r="O30" s="33"/>
+      <c r="P30" s="37"/>
     </row>
     <row r="31" ht="18" customHeight="1" spans="1:16">
       <c r="A31" s="1"/>
       <c r="B31" s="1" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="C31" s="6"/>
       <c r="D31" s="6"/>
-      <c r="E31" s="22"/>
-      <c r="F31" s="1"/>
-      <c r="G31" s="1"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="25"/>
+      <c r="G31" s="24"/>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
-      <c r="J31" s="26"/>
-      <c r="K31" s="27"/>
-      <c r="L31" s="27"/>
-      <c r="M31" s="27"/>
-      <c r="N31" s="27"/>
-      <c r="O31" s="27"/>
-      <c r="P31" s="31"/>
+      <c r="J31" s="32"/>
+      <c r="K31" s="33"/>
+      <c r="L31" s="33"/>
+      <c r="M31" s="33"/>
+      <c r="N31" s="33"/>
+      <c r="O31" s="33"/>
+      <c r="P31" s="37"/>
     </row>
     <row r="32" ht="18" customHeight="1" spans="1:16">
       <c r="A32" s="1"/>
       <c r="B32" s="1" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="G32" s="1" t="s">
-        <v>69</v>
+        <v>77</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>76</v>
       </c>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
-      <c r="J32" s="26"/>
-      <c r="K32" s="27"/>
-      <c r="L32" s="27"/>
-      <c r="M32" s="27"/>
-      <c r="N32" s="27"/>
-      <c r="O32" s="27"/>
-      <c r="P32" s="31"/>
+      <c r="J32" s="32"/>
+      <c r="K32" s="33"/>
+      <c r="L32" s="33"/>
+      <c r="M32" s="33"/>
+      <c r="N32" s="33"/>
+      <c r="O32" s="33"/>
+      <c r="P32" s="37"/>
     </row>
     <row r="33" ht="18" customHeight="1" spans="1:16">
       <c r="A33" s="1"/>
       <c r="B33" s="1" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="G33" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>79</v>
       </c>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
-      <c r="J33" s="26"/>
-      <c r="K33" s="27"/>
-      <c r="L33" s="27"/>
-      <c r="M33" s="27"/>
-      <c r="N33" s="27"/>
-      <c r="O33" s="27"/>
-      <c r="P33" s="31"/>
+      <c r="J33" s="32"/>
+      <c r="K33" s="33"/>
+      <c r="L33" s="33"/>
+      <c r="M33" s="33"/>
+      <c r="N33" s="33"/>
+      <c r="O33" s="33"/>
+      <c r="P33" s="37"/>
     </row>
     <row r="34" ht="18" customHeight="1" spans="1:16">
       <c r="A34" s="1"/>
       <c r="B34" s="1" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="G34" s="1" t="s">
-        <v>74</v>
+        <v>81</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="G34" s="3" t="s">
+        <v>81</v>
       </c>
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
-      <c r="J34" s="26"/>
-      <c r="K34" s="27"/>
-      <c r="L34" s="27"/>
-      <c r="M34" s="27"/>
-      <c r="N34" s="27"/>
-      <c r="O34" s="27"/>
-      <c r="P34" s="31"/>
+      <c r="J34" s="32"/>
+      <c r="K34" s="33"/>
+      <c r="L34" s="33"/>
+      <c r="M34" s="33"/>
+      <c r="N34" s="33"/>
+      <c r="O34" s="33"/>
+      <c r="P34" s="37"/>
     </row>
     <row r="35" spans="1:16">
       <c r="A35" s="15" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="B35" s="15"/>
       <c r="C35" s="15"/>
@@ -2459,13 +2510,13 @@
       <c r="G35" s="15"/>
       <c r="H35" s="15"/>
       <c r="I35" s="15"/>
-      <c r="J35" s="26"/>
-      <c r="K35" s="27"/>
-      <c r="L35" s="27"/>
-      <c r="M35" s="27"/>
-      <c r="N35" s="27"/>
-      <c r="O35" s="27"/>
-      <c r="P35" s="31"/>
+      <c r="J35" s="32"/>
+      <c r="K35" s="33"/>
+      <c r="L35" s="33"/>
+      <c r="M35" s="33"/>
+      <c r="N35" s="33"/>
+      <c r="O35" s="33"/>
+      <c r="P35" s="37"/>
     </row>
     <row r="36" spans="1:16">
       <c r="A36" s="15"/>
@@ -2477,13 +2528,13 @@
       <c r="G36" s="15"/>
       <c r="H36" s="15"/>
       <c r="I36" s="15"/>
-      <c r="J36" s="26"/>
-      <c r="K36" s="27"/>
-      <c r="L36" s="27"/>
-      <c r="M36" s="27"/>
-      <c r="N36" s="27"/>
-      <c r="O36" s="27"/>
-      <c r="P36" s="31"/>
+      <c r="J36" s="32"/>
+      <c r="K36" s="33"/>
+      <c r="L36" s="33"/>
+      <c r="M36" s="33"/>
+      <c r="N36" s="33"/>
+      <c r="O36" s="33"/>
+      <c r="P36" s="37"/>
     </row>
     <row r="37" spans="1:16">
       <c r="A37" s="15"/>
@@ -2495,13 +2546,13 @@
       <c r="G37" s="15"/>
       <c r="H37" s="15"/>
       <c r="I37" s="15"/>
-      <c r="J37" s="26"/>
-      <c r="K37" s="27"/>
-      <c r="L37" s="27"/>
-      <c r="M37" s="27"/>
-      <c r="N37" s="27"/>
-      <c r="O37" s="27"/>
-      <c r="P37" s="31"/>
+      <c r="J37" s="32"/>
+      <c r="K37" s="33"/>
+      <c r="L37" s="33"/>
+      <c r="M37" s="33"/>
+      <c r="N37" s="33"/>
+      <c r="O37" s="33"/>
+      <c r="P37" s="37"/>
     </row>
     <row r="38" spans="1:16">
       <c r="A38" s="15"/>
@@ -2513,16 +2564,16 @@
       <c r="G38" s="15"/>
       <c r="H38" s="15"/>
       <c r="I38" s="15"/>
-      <c r="J38" s="28"/>
-      <c r="K38" s="29"/>
-      <c r="L38" s="29"/>
-      <c r="M38" s="29"/>
-      <c r="N38" s="29"/>
-      <c r="O38" s="29"/>
-      <c r="P38" s="32"/>
+      <c r="J38" s="34"/>
+      <c r="K38" s="35"/>
+      <c r="L38" s="35"/>
+      <c r="M38" s="35"/>
+      <c r="N38" s="35"/>
+      <c r="O38" s="35"/>
+      <c r="P38" s="38"/>
     </row>
   </sheetData>
-  <mergeCells count="25">
+  <mergeCells count="33">
     <mergeCell ref="A2:A11"/>
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A16:A22"/>
@@ -2545,6 +2596,14 @@
     <mergeCell ref="E15:E20"/>
     <mergeCell ref="E23:E26"/>
     <mergeCell ref="E27:E31"/>
+    <mergeCell ref="F4:F10"/>
+    <mergeCell ref="F12:F14"/>
+    <mergeCell ref="F15:F21"/>
+    <mergeCell ref="F23:F31"/>
+    <mergeCell ref="G4:G10"/>
+    <mergeCell ref="G12:G14"/>
+    <mergeCell ref="G15:G21"/>
+    <mergeCell ref="G23:G30"/>
     <mergeCell ref="A35:I38"/>
     <mergeCell ref="J1:P16"/>
     <mergeCell ref="J17:P38"/>
